--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E274257B-6680-4D58-8AF6-741E8FBA2967}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF65FD5A-C9B7-4783-B2A7-5C5EF95F0E71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="ProReg" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="155">
   <si>
     <t>Yards</t>
   </si>
@@ -52,9 +52,6 @@
     <t>0-3</t>
   </si>
   <si>
-    <t>9-12</t>
-  </si>
-  <si>
     <t>5+</t>
   </si>
   <si>
@@ -148,24 +145,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>1250+</t>
-  </si>
-  <si>
-    <t>1000-1250</t>
-  </si>
-  <si>
-    <t>750-1000</t>
-  </si>
-  <si>
-    <t>500-750</t>
-  </si>
-  <si>
-    <t>250-500</t>
-  </si>
-  <si>
-    <t>0-250</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
@@ -181,30 +160,12 @@
     <t>7-9</t>
   </si>
   <si>
-    <t>4-6</t>
-  </si>
-  <si>
     <t>TE</t>
   </si>
   <si>
-    <t>1000+</t>
-  </si>
-  <si>
-    <t>800-1000</t>
-  </si>
-  <si>
-    <t>600-800</t>
-  </si>
-  <si>
     <t>400-600</t>
   </si>
   <si>
-    <t>200-400</t>
-  </si>
-  <si>
-    <t>0-200</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
@@ -253,9 +214,6 @@
     <t>TOs</t>
   </si>
   <si>
-    <t>INT FF FR</t>
-  </si>
-  <si>
     <t>7+</t>
   </si>
   <si>
@@ -322,33 +280,6 @@
     <t>&lt; 50</t>
   </si>
   <si>
-    <t>&gt; 200</t>
-  </si>
-  <si>
-    <t>&gt; 400</t>
-  </si>
-  <si>
-    <t>320-400</t>
-  </si>
-  <si>
-    <t>240-320</t>
-  </si>
-  <si>
-    <t>160-240</t>
-  </si>
-  <si>
-    <t>80-160</t>
-  </si>
-  <si>
-    <t>&lt; 100</t>
-  </si>
-  <si>
-    <t>&gt; 250</t>
-  </si>
-  <si>
-    <t>200-250</t>
-  </si>
-  <si>
     <t>&lt; 75</t>
   </si>
   <si>
@@ -431,6 +362,144 @@
   </si>
   <si>
     <t>0-1 Games</t>
+  </si>
+  <si>
+    <t>Yards/game</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>75-90</t>
+  </si>
+  <si>
+    <t>60-75</t>
+  </si>
+  <si>
+    <t>45-60</t>
+  </si>
+  <si>
+    <t>TDs/game</t>
+  </si>
+  <si>
+    <t>0.8+</t>
+  </si>
+  <si>
+    <t>0.65-0.8</t>
+  </si>
+  <si>
+    <t>0.5-0.65</t>
+  </si>
+  <si>
+    <t>0.35-0.5</t>
+  </si>
+  <si>
+    <t>0.2-0.35</t>
+  </si>
+  <si>
+    <t>25-45</t>
+  </si>
+  <si>
+    <t>0-25</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>50-65</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>20-35</t>
+  </si>
+  <si>
+    <t>35-50</t>
+  </si>
+  <si>
+    <t>0.65+</t>
+  </si>
+  <si>
+    <t>0.1-0.2</t>
+  </si>
+  <si>
+    <t>0-0.1</t>
+  </si>
+  <si>
+    <t>&gt;175</t>
+  </si>
+  <si>
+    <t>150-175</t>
+  </si>
+  <si>
+    <t>LG C RG</t>
+  </si>
+  <si>
+    <t>&gt; 300</t>
+  </si>
+  <si>
+    <t>200-300</t>
+  </si>
+  <si>
+    <t>Min. 250 Snaps</t>
+  </si>
+  <si>
+    <t>950+</t>
+  </si>
+  <si>
+    <t>600-950</t>
+  </si>
+  <si>
+    <t>250-400</t>
+  </si>
+  <si>
+    <t>150-250</t>
+  </si>
+  <si>
+    <t>&lt; 150</t>
+  </si>
+  <si>
+    <t>LE RE</t>
+  </si>
+  <si>
+    <t>LOLB ROLB</t>
+  </si>
+  <si>
+    <t>FS SS</t>
+  </si>
+  <si>
+    <t>INT FF FR TD</t>
+  </si>
+  <si>
+    <t>Sacks + TFL</t>
+  </si>
+  <si>
+    <t>Sacks/TFL</t>
+  </si>
+  <si>
+    <t>Per Game</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>1.6-2</t>
+  </si>
+  <si>
+    <t>1.2-1.6</t>
+  </si>
+  <si>
+    <t>0.8-1.2</t>
+  </si>
+  <si>
+    <t>0.4-0.8</t>
+  </si>
+  <si>
+    <t>0-0.4</t>
   </si>
 </sst>
 </file>
@@ -498,18 +567,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,42 +917,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -888,54 +963,54 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
+      <c r="A2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
+      <c r="AD2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -946,12 +1021,12 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -1036,85 +1111,85 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1126,85 +1201,85 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1216,85 +1291,85 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1306,85 +1381,85 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1396,85 +1471,85 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1486,85 +1561,85 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1623,47 +1698,47 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="N11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="R11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="V11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="Z11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
+      <c r="AD11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1674,14 +1749,14 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
+      <c r="A12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1750,17 +1825,17 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -1768,7 +1843,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>12</v>
@@ -1776,42 +1851,42 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -1824,68 +1899,68 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1898,68 +1973,68 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -1972,68 +2047,68 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2046,68 +2121,68 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -2120,68 +2195,68 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2199,47 +2274,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="N19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="R19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="V19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
+      <c r="Z19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
+      <c r="AD19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2250,8 +2325,8 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
+      <c r="A20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -2326,17 +2401,17 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -2344,7 +2419,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>12</v>
@@ -2352,42 +2427,42 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -2400,68 +2475,68 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -2474,68 +2549,68 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2548,68 +2623,68 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2622,68 +2697,68 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -2696,68 +2771,68 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -2769,8 +2844,8 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:40" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2813,57 +2888,39 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -2874,88 +2931,58 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -2966,85 +2993,87 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -3056,85 +3085,85 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -3146,85 +3175,85 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -3236,15 +3265,15 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -3258,63 +3287,63 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -3326,15 +3355,15 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -3348,63 +3377,63 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -3416,15 +3445,15 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
@@ -3438,63 +3467,63 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -3506,38 +3535,86 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
+      <c r="Z36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
@@ -3551,234 +3628,174 @@
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>66</v>
+      <c r="A38" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG38" s="3"/>
+      <c r="F38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG39" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="5"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -3788,87 +3805,71 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG40" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="5"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -3878,87 +3879,71 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG41" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="5"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -3968,87 +3953,71 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG42" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="5"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4058,87 +4027,71 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG43" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="5"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4148,87 +4101,71 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG44" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="5"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4238,39 +4175,71 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
+      <c r="V45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
+      <c r="Z45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AD45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="2"/>
+      <c r="AG45" s="5"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4283,52 +4252,36 @@
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="2"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
@@ -4338,88 +4291,54 @@
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF47" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4430,85 +4349,87 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -4520,85 +4441,85 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -4610,85 +4531,85 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -4700,85 +4621,85 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -4790,85 +4711,85 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L52" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -4880,85 +4801,85 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="T53" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -4970,38 +4891,86 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
+      <c r="V54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
+      <c r="Z54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
+      <c r="AD54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -5015,51 +4984,35 @@
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
@@ -5070,88 +5023,56 @@
       <c r="AN55" s="1"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF56" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5162,85 +5083,87 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -5252,85 +5175,85 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -5342,85 +5265,85 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -5432,85 +5355,85 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -5522,85 +5445,85 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L61" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -5612,85 +5535,85 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="T62" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -5702,38 +5625,86 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="R63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
+      <c r="V63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
+      <c r="Z63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
+      <c r="AD63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
@@ -5747,51 +5718,35 @@
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
@@ -5802,88 +5757,54 @@
       <c r="AN64" s="1"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF65" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5894,85 +5815,87 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -5984,85 +5907,85 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -6074,85 +5997,85 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -6164,85 +6087,85 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -6254,85 +6177,85 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -6344,85 +6267,85 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S71" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="T71" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -6434,38 +6357,86 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
+      <c r="R72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
+      <c r="V72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
+      <c r="Z72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
+      <c r="AD72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF72" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
@@ -6477,53 +6448,37 @@
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
@@ -6534,88 +6489,54 @@
       <c r="AN73" s="1"/>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF74" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
@@ -6626,85 +6547,87 @@
       <c r="AN74" s="1"/>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
+      <c r="A75" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U75" s="1"/>
       <c r="V75" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AF75" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -6716,85 +6639,85 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T76" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -6806,85 +6729,85 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -6896,85 +6819,85 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -6986,85 +6909,85 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -7076,85 +6999,85 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7166,38 +7089,86 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
+      <c r="R81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
+      <c r="V81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
+      <c r="Z81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
+      <c r="AD81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
@@ -7209,53 +7180,37 @@
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
@@ -7266,88 +7221,56 @@
       <c r="AN82" s="1"/>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>85</v>
+      <c r="A83" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF83" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
@@ -7358,85 +7281,87 @@
       <c r="AN83" s="1"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="A84" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
@@ -7448,85 +7373,85 @@
       <c r="AN84" s="1"/>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T85" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -7538,85 +7463,85 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -7628,85 +7553,85 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -7718,85 +7643,85 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -7808,85 +7733,85 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -7898,38 +7823,86 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="N90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
+      <c r="R90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
+      <c r="V90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
+      <c r="Z90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="AD90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF90" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
@@ -7940,25 +7913,13 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -7994,24 +7955,24 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="6"/>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A92" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -8048,24 +8009,24 @@
       <c r="AN92" s="1"/>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A93" s="6"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -8102,24 +8063,24 @@
       <c r="AN93" s="1"/>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A94" s="6"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -8156,24 +8117,24 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A95" s="6"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -8210,24 +8171,24 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A96" s="6"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -8264,24 +8225,24 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A97" s="6"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -8318,24 +8279,24 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A98" s="6"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -8371,69 +8332,124 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
     </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A91:A98"/>
+  <mergeCells count="86">
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A92:A99"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AD82:AF82"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="AL37:AN37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="AG38:AG44"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AD74:AF74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AD83:AF83"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="R74:T74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
     <mergeCell ref="A20:A26"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F19:H19"/>
@@ -8460,5 +8476,6 @@
     <mergeCell ref="AD2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF65FD5A-C9B7-4783-B2A7-5C5EF95F0E71}"/>
+  <xr:revisionPtr revIDLastSave="1421" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4830E6F8-6263-43E8-A67E-D0912C968028}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="175">
   <si>
     <t>Yards</t>
   </si>
@@ -46,460 +45,520 @@
     <t>Fumbles</t>
   </si>
   <si>
-    <t>12+</t>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>95+</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>90-94</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>&lt; 69</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>400-600</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>OLB</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>Tackles</t>
+  </si>
+  <si>
+    <t>TOs</t>
+  </si>
+  <si>
+    <t>7+</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>8+</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Snaps/Sack</t>
+  </si>
+  <si>
+    <t>G C</t>
+  </si>
+  <si>
+    <t>150-200</t>
+  </si>
+  <si>
+    <t>100-150</t>
+  </si>
+  <si>
+    <t>75-100</t>
+  </si>
+  <si>
+    <t>50-75</t>
+  </si>
+  <si>
+    <t>&lt; 50</t>
+  </si>
+  <si>
+    <t>&lt; 75</t>
+  </si>
+  <si>
+    <t>Skill Points (+), Regression Points (-)</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t>60-80</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>Total Yards/g</t>
+  </si>
+  <si>
+    <t>Total TDs/g</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>0.8-1</t>
+  </si>
+  <si>
+    <t>0.6-0.8</t>
+  </si>
+  <si>
+    <t>0.4-0.6</t>
+  </si>
+  <si>
+    <t>0.2-0.4</t>
+  </si>
+  <si>
+    <t>0-0.2</t>
+  </si>
+  <si>
+    <t>10+ Games Played</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>&gt;69</t>
+  </si>
+  <si>
+    <t>8-9 Games</t>
+  </si>
+  <si>
+    <t>6-7 Games</t>
+  </si>
+  <si>
+    <t>4-5 Games</t>
+  </si>
+  <si>
+    <t>2-3 Games</t>
+  </si>
+  <si>
+    <t>0-1 Games</t>
+  </si>
+  <si>
+    <t>Yards/game</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>75-90</t>
+  </si>
+  <si>
+    <t>60-75</t>
+  </si>
+  <si>
+    <t>45-60</t>
+  </si>
+  <si>
+    <t>TDs/game</t>
+  </si>
+  <si>
+    <t>0.8+</t>
+  </si>
+  <si>
+    <t>0.65-0.8</t>
+  </si>
+  <si>
+    <t>0.5-0.65</t>
+  </si>
+  <si>
+    <t>0.35-0.5</t>
+  </si>
+  <si>
+    <t>0.2-0.35</t>
+  </si>
+  <si>
+    <t>25-45</t>
+  </si>
+  <si>
+    <t>0-25</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>50-65</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>20-35</t>
+  </si>
+  <si>
+    <t>35-50</t>
+  </si>
+  <si>
+    <t>0.65+</t>
+  </si>
+  <si>
+    <t>0.1-0.2</t>
+  </si>
+  <si>
+    <t>0-0.1</t>
+  </si>
+  <si>
+    <t>&gt;175</t>
+  </si>
+  <si>
+    <t>150-175</t>
+  </si>
+  <si>
+    <t>LG C RG</t>
+  </si>
+  <si>
+    <t>&gt; 300</t>
+  </si>
+  <si>
+    <t>200-300</t>
+  </si>
+  <si>
+    <t>Min. 250 Snaps</t>
+  </si>
+  <si>
+    <t>950+</t>
+  </si>
+  <si>
+    <t>600-950</t>
+  </si>
+  <si>
+    <t>250-400</t>
+  </si>
+  <si>
+    <t>150-250</t>
+  </si>
+  <si>
+    <t>&lt; 150</t>
+  </si>
+  <si>
+    <t>LE RE</t>
+  </si>
+  <si>
+    <t>LOLB ROLB</t>
+  </si>
+  <si>
+    <t>FS SS</t>
+  </si>
+  <si>
+    <t>INT FF FR TD</t>
+  </si>
+  <si>
+    <t>Sacks + TFL</t>
+  </si>
+  <si>
+    <t>Sacks/TFL</t>
+  </si>
+  <si>
+    <t>Per Game</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>1.6-2</t>
+  </si>
+  <si>
+    <t>1.2-1.6</t>
+  </si>
+  <si>
+    <t>0.8-1.2</t>
+  </si>
+  <si>
+    <t>0.4-0.8</t>
+  </si>
+  <si>
+    <t>0-0.4</t>
+  </si>
+  <si>
+    <t>1.5+</t>
+  </si>
+  <si>
+    <t>1.2-1.5</t>
+  </si>
+  <si>
+    <t>0.9-1.2</t>
+  </si>
+  <si>
+    <t>0.6-0.9</t>
+  </si>
+  <si>
+    <t>0.3-0.6</t>
+  </si>
+  <si>
+    <t>0-0.3</t>
+  </si>
+  <si>
+    <t>Sacks + TFL + PD</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>TFL/Sack/PD</t>
+  </si>
+  <si>
+    <t>TFL/Sacks/PD</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-5</t>
   </si>
   <si>
     <t>0-3</t>
   </si>
   <si>
-    <t>5+</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>95+</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>90-94</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>85-89</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>80-84</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>75-79</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>70-74</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>&lt; 69</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>7-9</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>400-600</t>
-  </si>
-  <si>
-    <t>10+</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>8-9</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Sacks</t>
-  </si>
-  <si>
-    <t>TFL</t>
-  </si>
-  <si>
-    <t>10-11</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>OLB</t>
-  </si>
-  <si>
-    <t>MLB</t>
-  </si>
-  <si>
-    <t>Tackles</t>
-  </si>
-  <si>
-    <t>TOs</t>
-  </si>
-  <si>
-    <t>7+</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>8+</t>
-  </si>
-  <si>
-    <t>50+</t>
-  </si>
-  <si>
-    <t>0-20</t>
-  </si>
-  <si>
-    <t>21-28</t>
-  </si>
-  <si>
-    <t>29-36</t>
-  </si>
-  <si>
-    <t>37-43</t>
-  </si>
-  <si>
-    <t>44-49</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Snaps/Sack</t>
-  </si>
-  <si>
-    <t>G C</t>
-  </si>
-  <si>
-    <t>150-200</t>
-  </si>
-  <si>
-    <t>100-150</t>
-  </si>
-  <si>
-    <t>75-100</t>
-  </si>
-  <si>
-    <t>50-75</t>
-  </si>
-  <si>
-    <t>&lt; 50</t>
-  </si>
-  <si>
-    <t>&lt; 75</t>
-  </si>
-  <si>
-    <t>Skill Points (+), Regression Points (-)</t>
-  </si>
-  <si>
-    <t>18+</t>
-  </si>
-  <si>
-    <t>15-17</t>
-  </si>
-  <si>
-    <t>11-14</t>
-  </si>
-  <si>
-    <t>8-10</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>100+</t>
-  </si>
-  <si>
-    <t>80-100</t>
-  </si>
-  <si>
-    <t>60-80</t>
-  </si>
-  <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>20-40</t>
-  </si>
-  <si>
-    <t>Total Yards/g</t>
-  </si>
-  <si>
-    <t>Total TDs/g</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>0.8-1</t>
-  </si>
-  <si>
-    <t>0.6-0.8</t>
-  </si>
-  <si>
-    <t>0.4-0.6</t>
-  </si>
-  <si>
-    <t>0.2-0.4</t>
-  </si>
-  <si>
-    <t>0-0.2</t>
-  </si>
-  <si>
-    <t>10+ Games Played</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>&gt;69</t>
-  </si>
-  <si>
-    <t>8-9 Games</t>
-  </si>
-  <si>
-    <t>6-7 Games</t>
-  </si>
-  <si>
-    <t>4-5 Games</t>
-  </si>
-  <si>
-    <t>2-3 Games</t>
-  </si>
-  <si>
-    <t>0-1 Games</t>
-  </si>
-  <si>
-    <t>Yards/game</t>
-  </si>
-  <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>75-90</t>
-  </si>
-  <si>
-    <t>60-75</t>
-  </si>
-  <si>
-    <t>45-60</t>
-  </si>
-  <si>
-    <t>TDs/game</t>
-  </si>
-  <si>
-    <t>0.8+</t>
-  </si>
-  <si>
-    <t>0.65-0.8</t>
-  </si>
-  <si>
-    <t>0.5-0.65</t>
-  </si>
-  <si>
-    <t>0.35-0.5</t>
-  </si>
-  <si>
-    <t>0.2-0.35</t>
-  </si>
-  <si>
-    <t>25-45</t>
-  </si>
-  <si>
-    <t>0-25</t>
-  </si>
-  <si>
-    <t>65+</t>
-  </si>
-  <si>
-    <t>50-65</t>
-  </si>
-  <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>10-20</t>
-  </si>
-  <si>
-    <t>20-35</t>
-  </si>
-  <si>
-    <t>35-50</t>
-  </si>
-  <si>
-    <t>0.65+</t>
-  </si>
-  <si>
-    <t>0.1-0.2</t>
-  </si>
-  <si>
-    <t>0-0.1</t>
-  </si>
-  <si>
-    <t>&gt;175</t>
-  </si>
-  <si>
-    <t>150-175</t>
-  </si>
-  <si>
-    <t>LG C RG</t>
-  </si>
-  <si>
-    <t>&gt; 300</t>
-  </si>
-  <si>
-    <t>200-300</t>
-  </si>
-  <si>
-    <t>Min. 250 Snaps</t>
-  </si>
-  <si>
-    <t>950+</t>
-  </si>
-  <si>
-    <t>600-950</t>
-  </si>
-  <si>
-    <t>250-400</t>
-  </si>
-  <si>
-    <t>150-250</t>
-  </si>
-  <si>
-    <t>&lt; 150</t>
-  </si>
-  <si>
-    <t>LE RE</t>
-  </si>
-  <si>
-    <t>LOLB ROLB</t>
-  </si>
-  <si>
-    <t>FS SS</t>
-  </si>
-  <si>
-    <t>INT FF FR TD</t>
-  </si>
-  <si>
-    <t>Sacks + TFL</t>
-  </si>
-  <si>
-    <t>Sacks/TFL</t>
-  </si>
-  <si>
-    <t>Per Game</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>1.6-2</t>
-  </si>
-  <si>
-    <t>1.2-1.6</t>
-  </si>
-  <si>
-    <t>0.8-1.2</t>
-  </si>
-  <si>
-    <t>0.4-0.8</t>
-  </si>
-  <si>
-    <t>0-0.4</t>
+    <t>9+</t>
+  </si>
+  <si>
+    <t>Rush + Rec</t>
+  </si>
+  <si>
+    <t>0.85-1</t>
+  </si>
+  <si>
+    <t>0.7-0.85</t>
+  </si>
+  <si>
+    <t>0.5-0.7</t>
+  </si>
+  <si>
+    <t>0.25-0.5</t>
+  </si>
+  <si>
+    <t>0-0.25</t>
+  </si>
+  <si>
+    <t>TOs (5 Columns)</t>
+  </si>
+  <si>
+    <t>PD/game</t>
+  </si>
+  <si>
+    <t>Min. 250 snaps</t>
+  </si>
+  <si>
+    <t>CA/snap</t>
+  </si>
+  <si>
+    <t>0.04-0.05</t>
+  </si>
+  <si>
+    <t>&lt; 0</t>
+  </si>
+  <si>
+    <t>&gt; 0.05</t>
+  </si>
+  <si>
+    <t>0.03-0.04</t>
+  </si>
+  <si>
+    <t>0.02-0.03</t>
+  </si>
+  <si>
+    <t>0.01-0.02</t>
+  </si>
+  <si>
+    <t>(CA/game)-(PD/game)</t>
+  </si>
+  <si>
+    <t>1.5-2</t>
+  </si>
+  <si>
+    <t>1-1.5</t>
+  </si>
+  <si>
+    <t>0.5-1</t>
+  </si>
+  <si>
+    <t>0-0.5</t>
+  </si>
+  <si>
+    <t>Tackles/game</t>
   </si>
 </sst>
 </file>
@@ -567,10 +626,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,56 +965,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="A1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -963,54 +1023,58 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1021,12 +1085,12 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -1111,85 +1175,85 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1201,85 +1265,85 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1291,85 +1355,85 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1381,85 +1445,85 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1471,85 +1535,85 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1561,85 +1625,85 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1694,51 +1758,55 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="6" t="s">
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1749,14 +1817,14 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
+      <c r="A12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1825,68 +1893,68 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -1899,68 +1967,68 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1973,68 +2041,68 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2047,68 +2115,68 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2121,68 +2189,68 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -2195,68 +2263,68 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2274,47 +2342,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="6" t="s">
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2325,14 +2393,14 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
+      <c r="A20" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2401,68 +2469,68 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -2475,68 +2543,68 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -2549,68 +2617,68 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2623,68 +2691,68 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2697,68 +2765,68 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -2771,68 +2839,68 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -2888,11 +2956,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2933,56 +3001,56 @@
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="6" t="s">
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -2993,87 +3061,87 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>48</v>
+      <c r="A30" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -3085,85 +3153,85 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -3175,85 +3243,85 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -3265,85 +3333,85 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -3355,85 +3423,85 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -3445,85 +3513,85 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -3535,85 +3603,85 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -3668,134 +3736,134 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="J38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="6" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="6" t="s">
+      <c r="Z38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>53</v>
+      <c r="A39" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="5"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -3805,71 +3873,71 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="5"/>
+      <c r="AG40" s="6"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -3879,71 +3947,71 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="5"/>
+      <c r="AG41" s="6"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -3953,71 +4021,71 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="5"/>
+      <c r="AG42" s="6"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4027,71 +4095,71 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="5"/>
+      <c r="AG43" s="6"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4101,71 +4169,71 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="5"/>
+      <c r="AG44" s="6"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4175,71 +4243,71 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="5"/>
+      <c r="AG45" s="6"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4292,53 +4360,55 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="J47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="6" t="s">
+      <c r="N47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="6" t="s">
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="6" t="s">
+      <c r="Z47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4349,88 +4419,72 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>54</v>
+      <c r="A48" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
@@ -4441,86 +4495,70 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
@@ -4531,86 +4569,70 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
@@ -4621,86 +4643,70 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
@@ -4711,86 +4717,70 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -4801,86 +4791,70 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -4891,86 +4865,70 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF54" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -5024,55 +4982,59 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="J56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="6" t="s">
+      <c r="N56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="6" t="s">
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="6" t="s">
+      <c r="Z56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5083,87 +5045,87 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>55</v>
+      <c r="A57" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="S57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="W57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="AA57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="AE57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AF57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -5175,85 +5137,85 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -5265,85 +5227,85 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -5355,85 +5317,85 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -5445,85 +5407,85 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -5535,85 +5497,85 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -5625,85 +5587,85 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -5758,53 +5720,57 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D65" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="F65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="J65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="6" t="s">
+      <c r="N65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="6" t="s">
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="6" t="s">
+      <c r="Z65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5815,87 +5781,87 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>56</v>
+      <c r="A66" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -5907,85 +5873,85 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -5997,85 +5963,85 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -6087,85 +6053,85 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -6177,85 +6143,85 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -6267,85 +6233,85 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -6357,85 +6323,85 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="1" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -6446,8 +6412,8 @@
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+    <row r="73" spans="1:40" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6490,53 +6456,39 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="6"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
@@ -6547,88 +6499,54 @@
       <c r="AN74" s="1"/>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF75" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6639,85 +6557,87 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
+      <c r="A76" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -6729,85 +6649,85 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -6819,85 +6739,85 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -6909,85 +6829,85 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -6999,85 +6919,85 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7089,85 +7009,85 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -7178,39 +7098,87 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+    <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6"/>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
+      <c r="R82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
+      <c r="V82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
+      <c r="Z82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
+      <c r="AD82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF82" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
@@ -7220,57 +7188,39 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>145</v>
-      </c>
+    <row r="83" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
@@ -7281,88 +7231,40 @@
       <c r="AN83" s="1"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
-      <c r="Z84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
@@ -7373,86 +7275,56 @@
       <c r="AN84" s="1"/>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
+      <c r="A85" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB85" s="1" t="s">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF85" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7463,85 +7335,87 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -7553,85 +7427,85 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -7643,85 +7517,85 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -7733,85 +7607,85 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -7823,85 +7697,85 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -7913,38 +7787,86 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="N91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
+      <c r="R91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
+      <c r="V91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
+      <c r="Z91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
+      <c r="AD91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF91" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
@@ -7955,50 +7877,86 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" s="1"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="J92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
+      <c r="R92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
+      <c r="V92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
+      <c r="Z92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
+      <c r="AD92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF92" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
@@ -8009,25 +7967,13 @@
       <c r="AN92" s="1"/>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="B93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -8063,24 +8009,24 @@
       <c r="AN93" s="1"/>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A94" s="8"/>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A94" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -8117,24 +8063,24 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -8171,24 +8117,24 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -8225,24 +8171,24 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -8279,24 +8225,24 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -8333,24 +8279,24 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -8386,27 +8332,137 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
     </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A100" s="9"/>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A101" s="9"/>
+      <c r="B101" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A92:A99"/>
+  <mergeCells count="88">
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A94:A101"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AD74:AF74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AD83:AF83"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AD85:AF85"/>
     <mergeCell ref="A66:A72"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="R74:T74"/>
-    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="V75:X75"/>
     <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="AD56:AF56"/>
     <mergeCell ref="V65:X65"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1421" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4830E6F8-6263-43E8-A67E-D0912C968028}"/>
+  <xr:revisionPtr revIDLastSave="1991" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1561F11C-CEB1-42EC-9120-157E59FBA7A7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="222">
   <si>
     <t>Yards</t>
   </si>
@@ -150,18 +150,9 @@
     <t>WR</t>
   </si>
   <si>
-    <t>7-9</t>
-  </si>
-  <si>
     <t>TE</t>
   </si>
   <si>
-    <t>400-600</t>
-  </si>
-  <si>
-    <t>10+</t>
-  </si>
-  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -219,30 +210,9 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Snaps/Sack</t>
-  </si>
-  <si>
     <t>G C</t>
   </si>
   <si>
-    <t>150-200</t>
-  </si>
-  <si>
-    <t>100-150</t>
-  </si>
-  <si>
-    <t>75-100</t>
-  </si>
-  <si>
-    <t>50-75</t>
-  </si>
-  <si>
-    <t>&lt; 50</t>
-  </si>
-  <si>
-    <t>&lt; 75</t>
-  </si>
-  <si>
     <t>Skill Points (+), Regression Points (-)</t>
   </si>
   <si>
@@ -375,39 +345,12 @@
     <t>0-0.1</t>
   </si>
   <si>
-    <t>&gt;175</t>
-  </si>
-  <si>
-    <t>150-175</t>
-  </si>
-  <si>
     <t>LG C RG</t>
   </si>
   <si>
-    <t>&gt; 300</t>
-  </si>
-  <si>
-    <t>200-300</t>
-  </si>
-  <si>
     <t>Min. 250 Snaps</t>
   </si>
   <si>
-    <t>950+</t>
-  </si>
-  <si>
-    <t>600-950</t>
-  </si>
-  <si>
-    <t>250-400</t>
-  </si>
-  <si>
-    <t>150-250</t>
-  </si>
-  <si>
-    <t>&lt; 150</t>
-  </si>
-  <si>
     <t>LE RE</t>
   </si>
   <si>
@@ -417,9 +360,6 @@
     <t>FS SS</t>
   </si>
   <si>
-    <t>INT FF FR TD</t>
-  </si>
-  <si>
     <t>Sacks + TFL</t>
   </si>
   <si>
@@ -432,9 +372,6 @@
     <t>2+</t>
   </si>
   <si>
-    <t>1.6-2</t>
-  </si>
-  <si>
     <t>1.2-1.6</t>
   </si>
   <si>
@@ -444,9 +381,6 @@
     <t>0.4-0.8</t>
   </si>
   <si>
-    <t>0-0.4</t>
-  </si>
-  <si>
     <t>1.5+</t>
   </si>
   <si>
@@ -459,18 +393,9 @@
     <t>0.6-0.9</t>
   </si>
   <si>
-    <t>0.3-0.6</t>
-  </si>
-  <si>
-    <t>0-0.3</t>
-  </si>
-  <si>
     <t>Sacks + TFL + PD</t>
   </si>
   <si>
-    <t>0.0.3</t>
-  </si>
-  <si>
     <t>TFL/Sack/PD</t>
   </si>
   <si>
@@ -480,9 +405,6 @@
     <t>2-4</t>
   </si>
   <si>
-    <t>9-10</t>
-  </si>
-  <si>
     <t>5-7</t>
   </si>
   <si>
@@ -498,15 +420,6 @@
     <t>Rush + Rec</t>
   </si>
   <si>
-    <t>0.85-1</t>
-  </si>
-  <si>
-    <t>0.7-0.85</t>
-  </si>
-  <si>
-    <t>0.5-0.7</t>
-  </si>
-  <si>
     <t>0.25-0.5</t>
   </si>
   <si>
@@ -519,30 +432,9 @@
     <t>PD/game</t>
   </si>
   <si>
-    <t>Min. 250 snaps</t>
-  </si>
-  <si>
-    <t>CA/snap</t>
-  </si>
-  <si>
-    <t>0.04-0.05</t>
-  </si>
-  <si>
     <t>&lt; 0</t>
   </si>
   <si>
-    <t>&gt; 0.05</t>
-  </si>
-  <si>
-    <t>0.03-0.04</t>
-  </si>
-  <si>
-    <t>0.02-0.03</t>
-  </si>
-  <si>
-    <t>0.01-0.02</t>
-  </si>
-  <si>
     <t>(CA/game)-(PD/game)</t>
   </si>
   <si>
@@ -555,10 +447,259 @@
     <t>0.5-1</t>
   </si>
   <si>
-    <t>0-0.5</t>
-  </si>
-  <si>
     <t>Tackles/game</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>XP %</t>
+  </si>
+  <si>
+    <t>FG %</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>0.9+</t>
+  </si>
+  <si>
+    <t>0.85-0.9</t>
+  </si>
+  <si>
+    <t>0.8-0.85</t>
+  </si>
+  <si>
+    <t>0.75-0.8</t>
+  </si>
+  <si>
+    <t>0.7-0.75</t>
+  </si>
+  <si>
+    <t>&lt; 0.7</t>
+  </si>
+  <si>
+    <t>0.97-1</t>
+  </si>
+  <si>
+    <t>0.93-0.97</t>
+  </si>
+  <si>
+    <t>0.90-0.93</t>
+  </si>
+  <si>
+    <t>0.87-0.90</t>
+  </si>
+  <si>
+    <t>&lt; 0.87</t>
+  </si>
+  <si>
+    <t>40+ Yard FGs %</t>
+  </si>
+  <si>
+    <t>0.85+</t>
+  </si>
+  <si>
+    <t>0.70-0.75</t>
+  </si>
+  <si>
+    <t>0.65-0.70</t>
+  </si>
+  <si>
+    <t>&lt; 0.65</t>
+  </si>
+  <si>
+    <t>40+</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TB per punt in 20</t>
+  </si>
+  <si>
+    <t>0.2-0.25</t>
+  </si>
+  <si>
+    <t>0.25+</t>
+  </si>
+  <si>
+    <t>0.15-0.2</t>
+  </si>
+  <si>
+    <t>0.1-0.15</t>
+  </si>
+  <si>
+    <t>Punt Yards / Punt</t>
+  </si>
+  <si>
+    <t>Yards / Punt</t>
+  </si>
+  <si>
+    <t>48+</t>
+  </si>
+  <si>
+    <t>46-48</t>
+  </si>
+  <si>
+    <t>44-46</t>
+  </si>
+  <si>
+    <t>42-44</t>
+  </si>
+  <si>
+    <t>41-42</t>
+  </si>
+  <si>
+    <t>&lt; 41</t>
+  </si>
+  <si>
+    <t>Net Yards / Punt Yards</t>
+  </si>
+  <si>
+    <t>0.97+</t>
+  </si>
+  <si>
+    <t>0.95-0.97</t>
+  </si>
+  <si>
+    <t>0.93-0.95</t>
+  </si>
+  <si>
+    <t>(Sacks/Snap)*1000</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>&lt; 6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>8-12</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t>5-6.5</t>
+  </si>
+  <si>
+    <t>6.5-8</t>
+  </si>
+  <si>
+    <t>15+</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-3.5</t>
+  </si>
+  <si>
+    <t>3.5-5.5</t>
+  </si>
+  <si>
+    <t>5.5-8</t>
+  </si>
+  <si>
+    <t>0.6-1</t>
+  </si>
+  <si>
+    <t>0.2-0.6</t>
+  </si>
+  <si>
+    <t>1.4-2</t>
+  </si>
+  <si>
+    <t>1-1.4</t>
+  </si>
+  <si>
+    <t>1.6+</t>
+  </si>
+  <si>
+    <t>INT FF FR TD Blocks Safety</t>
+  </si>
+  <si>
+    <t>Tackles (2 columns)</t>
+  </si>
+  <si>
+    <t>0.1-0.4</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>TOs (7 Columns)</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>1.2+</t>
+  </si>
+  <si>
+    <t>1.0-1.2</t>
+  </si>
+  <si>
+    <t>0.75-1.0</t>
+  </si>
+  <si>
+    <t>0.5-0.75</t>
+  </si>
+  <si>
+    <t>(CA/snap)*100</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>2.5-3.5</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>3.5-4</t>
+  </si>
+  <si>
+    <t>1-1.75</t>
+  </si>
+  <si>
+    <t>1.75-2.5</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>6.5+</t>
+  </si>
+  <si>
+    <t>5.75-6.5</t>
+  </si>
+  <si>
+    <t>5-5.75</t>
   </si>
 </sst>
 </file>
@@ -626,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -636,19 +777,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,54 +1112,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="F1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1023,58 +1174,58 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1085,12 +1236,12 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -1175,12 +1326,12 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1265,12 +1416,12 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -1287,7 +1438,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>11</v>
@@ -1355,19 +1506,19 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1377,7 +1528,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
@@ -1387,7 +1538,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>12</v>
@@ -1445,19 +1596,19 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -1467,7 +1618,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
@@ -1477,7 +1628,7 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>22</v>
@@ -1507,7 +1658,7 @@
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>10</v>
@@ -1535,12 +1686,12 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1553,11 +1704,11 @@
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -1567,7 +1718,7 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
@@ -1577,7 +1728,7 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>16</v>
@@ -1625,12 +1776,12 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -1643,11 +1794,11 @@
         <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>6</v>
@@ -1657,27 +1808,27 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>16</v>
@@ -1759,54 +1910,54 @@
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1817,14 +1968,14 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1893,12 +2044,12 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1967,12 +2118,12 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2041,12 +2192,12 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2115,12 +2266,12 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2136,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2144,15 +2295,15 @@
         <v>7</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2176,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2189,12 +2340,12 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2210,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2218,15 +2369,15 @@
         <v>18</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2234,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2263,12 +2414,12 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2284,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2292,15 +2443,15 @@
         <v>15</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2308,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2342,47 +2493,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2393,14 +2544,14 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
+      <c r="A20" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2469,12 +2620,12 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2543,12 +2694,12 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2617,12 +2768,12 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2691,12 +2842,12 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2712,7 +2863,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2720,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2728,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2752,7 +2903,7 @@
         <v>28</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2765,12 +2916,12 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2786,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2794,7 +2945,7 @@
         <v>18</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2802,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2810,7 +2961,7 @@
         <v>16</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -2839,12 +2990,12 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2860,7 +3011,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2868,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2876,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2884,7 +3035,7 @@
         <v>14</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -2956,11 +3107,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3001,56 +3152,56 @@
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3061,87 +3212,87 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
+      <c r="A30" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -3153,15 +3304,15 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -3243,15 +3394,15 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -3333,15 +3484,15 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -3423,15 +3574,15 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -3513,85 +3664,85 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -3603,15 +3754,15 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
@@ -3645,43 +3796,43 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -3736,134 +3887,134 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="7" t="s">
+      <c r="V38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="7" t="s">
+      <c r="AD38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>46</v>
+      <c r="A39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="6"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -3873,12 +4024,12 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3937,7 +4088,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="6"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -3947,12 +4098,12 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4011,7 +4162,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="6"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4021,9 +4172,9 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -4063,7 +4214,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>9</v>
@@ -4085,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="6"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4095,9 +4246,9 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -4159,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="6"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4169,9 +4320,9 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -4182,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4198,7 +4349,7 @@
         <v>18</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -4233,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4243,9 +4394,9 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>36</v>
@@ -4256,7 +4407,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4264,7 +4415,7 @@
         <v>19</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4272,7 +4423,7 @@
         <v>15</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -4280,7 +4431,7 @@
         <v>6</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -4307,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="6"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4361,54 +4512,54 @@
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="7" t="s">
+      <c r="AD47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4419,70 +4570,70 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>47</v>
+      <c r="A48" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -4495,9 +4646,9 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -4569,9 +4720,9 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="6"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -4643,9 +4794,9 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -4685,7 +4836,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>9</v>
@@ -4717,9 +4868,9 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="6"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -4791,9 +4942,9 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -4804,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4820,7 +4971,7 @@
         <v>18</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -4865,9 +5016,9 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="6"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -4878,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4886,7 +5037,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4894,7 +5045,7 @@
         <v>15</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -4902,7 +5053,7 @@
         <v>6</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -4982,59 +5133,59 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="7" t="s">
+      <c r="R56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="7" t="s">
+      <c r="V56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="7" t="s">
+      <c r="AD56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5045,87 +5196,87 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>48</v>
+      <c r="A57" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -5137,15 +5288,15 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -5227,15 +5378,15 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5317,15 +5468,15 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -5407,15 +5558,15 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
@@ -5497,9 +5648,9 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -5532,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>16</v>
@@ -5587,9 +5738,9 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -5602,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>18</v>
@@ -5622,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>7</v>
@@ -5632,7 +5783,7 @@
         <v>6</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>16</v>
@@ -5721,56 +5872,56 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="7" t="s">
+      <c r="V65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="7" t="s">
+      <c r="Z65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="7" t="s">
+      <c r="AD65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5781,87 +5932,87 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>49</v>
+      <c r="A66" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -5873,12 +6024,12 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -5963,12 +6114,12 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -6053,12 +6204,12 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -6143,12 +6294,12 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>10</v>
@@ -6233,12 +6384,12 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -6323,12 +6474,12 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>12</v>
@@ -6456,11 +6607,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6501,52 +6650,52 @@
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="7" t="s">
+      <c r="R75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="7" t="s">
+      <c r="V75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="7" t="s">
+      <c r="Z75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="7" t="s">
+      <c r="AD75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6557,87 +6706,87 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>53</v>
+      <c r="A76" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="T76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="X76" s="1" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AB76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AF76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -6649,35 +6798,35 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="6"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
@@ -6697,7 +6846,7 @@
         <v>28</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1" t="s">
@@ -6707,7 +6856,7 @@
         <v>24</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1" t="s">
@@ -6717,7 +6866,7 @@
         <v>27</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1" t="s">
@@ -6727,7 +6876,7 @@
         <v>31</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -6739,35 +6888,35 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="6"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
@@ -6787,7 +6936,7 @@
         <v>9</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1" t="s">
@@ -6797,7 +6946,7 @@
         <v>8</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1" t="s">
@@ -6807,7 +6956,7 @@
         <v>24</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1" t="s">
@@ -6817,7 +6966,7 @@
         <v>20</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -6829,29 +6978,29 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="6"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>12</v>
@@ -6861,7 +7010,7 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>11</v>
@@ -6877,7 +7026,7 @@
         <v>10</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1" t="s">
@@ -6887,7 +7036,7 @@
         <v>9</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
@@ -6897,7 +7046,7 @@
         <v>8</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
@@ -6907,7 +7056,7 @@
         <v>28</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -6919,29 +7068,29 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="6"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>22</v>
@@ -6951,7 +7100,7 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>22</v>
@@ -6967,7 +7116,7 @@
         <v>12</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1" t="s">
@@ -6977,7 +7126,7 @@
         <v>11</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
@@ -6987,7 +7136,7 @@
         <v>10</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1" t="s">
@@ -6997,7 +7146,7 @@
         <v>9</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7009,15 +7158,15 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="6"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -7077,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1" t="s">
@@ -7087,7 +7236,7 @@
         <v>11</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -7099,29 +7248,29 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>18</v>
@@ -7167,7 +7316,7 @@
         <v>22</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1" t="s">
@@ -7232,11 +7381,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7276,55 +7423,55 @@
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="7" t="s">
+      <c r="N85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="7" t="s">
+      <c r="R85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="7" t="s">
+      <c r="V85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="7" t="s">
+      <c r="Z85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="7" t="s">
+      <c r="AD85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7335,87 +7482,87 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>58</v>
+      <c r="A86" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -7427,15 +7574,15 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="6"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
@@ -7445,7 +7592,7 @@
         <v>11</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
@@ -7455,7 +7602,7 @@
         <v>10</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="s">
@@ -7475,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1" t="s">
@@ -7485,7 +7632,7 @@
         <v>28</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
@@ -7495,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1" t="s">
@@ -7505,7 +7652,7 @@
         <v>27</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -7517,15 +7664,15 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="6"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
@@ -7535,7 +7682,7 @@
         <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
@@ -7545,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
@@ -7565,7 +7712,7 @@
         <v>8</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1" t="s">
@@ -7575,7 +7722,7 @@
         <v>28</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
@@ -7585,7 +7732,7 @@
         <v>24</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1" t="s">
@@ -7595,7 +7742,7 @@
         <v>20</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -7607,15 +7754,15 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="6"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
@@ -7625,7 +7772,7 @@
         <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
@@ -7655,7 +7802,7 @@
         <v>11</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1" t="s">
@@ -7665,7 +7812,7 @@
         <v>9</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
@@ -7675,7 +7822,7 @@
         <v>8</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1" t="s">
@@ -7685,7 +7832,7 @@
         <v>28</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -7697,7 +7844,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="6"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7705,7 +7852,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
@@ -7715,7 +7862,7 @@
         <v>14</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="s">
@@ -7745,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1" t="s">
@@ -7755,7 +7902,7 @@
         <v>11</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
@@ -7765,7 +7912,7 @@
         <v>10</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1" t="s">
@@ -7775,7 +7922,7 @@
         <v>28</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -7787,15 +7934,15 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="6"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
@@ -7855,7 +8002,7 @@
         <v>12</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1" t="s">
@@ -7865,7 +8012,7 @@
         <v>10</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -7877,15 +8024,15 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="6"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -7945,7 +8092,7 @@
         <v>22</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1" t="s">
@@ -8008,39 +8155,35 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
-        <v>84</v>
-      </c>
+    <row r="94" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="6"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8062,39 +8205,59 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
+    <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
+      <c r="R95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
@@ -8116,39 +8279,57 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
+      <c r="R96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
@@ -8170,39 +8351,57 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
+      <c r="R97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
@@ -8224,39 +8423,57 @@
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="J98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
+      <c r="R98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
@@ -8278,39 +8495,57 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
+      <c r="R99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
@@ -8332,39 +8567,57 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="J100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
+      <c r="R100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
@@ -8386,39 +8639,57 @@
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="J101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
+      <c r="R101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
@@ -8440,72 +8711,786 @@
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
     </row>
+    <row r="102" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+    </row>
+    <row r="103" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+    </row>
+    <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+    </row>
+    <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="9"/>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+    </row>
+    <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="9"/>
+      <c r="B106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+    </row>
+    <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="9"/>
+      <c r="B107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+    </row>
+    <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="9"/>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+    </row>
+    <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="9"/>
+      <c r="B109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+    </row>
+    <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="9"/>
+      <c r="B110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A112" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="9"/>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="9"/>
+      <c r="B114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="9"/>
+      <c r="B115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="9"/>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="9"/>
+      <c r="B117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="9"/>
+      <c r="B118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="9"/>
+      <c r="B119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AF75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="B28:D28"/>
+  <mergeCells count="98">
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F19:H19"/>
@@ -8521,15 +9506,69 @@
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethpe\OneDrive\Documents\Git\madden22stats\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1991" documentId="8_{FC163A77-58CB-43FA-8330-5F28576B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1561F11C-CEB1-42EC-9120-157E59FBA7A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
   <si>
     <t>Yards</t>
   </si>
@@ -700,13 +700,19 @@
   </si>
   <si>
     <t>5-5.75</t>
+  </si>
+  <si>
+    <t>40-49 + 50+ columns</t>
+  </si>
+  <si>
+    <t>Games Played</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +752,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -767,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -784,18 +798,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,47 +1140,47 @@
     <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.54296875" customWidth="1"/>
     <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1174,7 +1191,7 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1185,47 +1202,47 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1236,7 +1253,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1326,7 +1343,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1416,7 +1433,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1506,7 +1523,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1578,7 +1595,7 @@
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>28</v>
@@ -1596,7 +1613,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1686,7 +1703,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1776,7 +1793,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1917,47 +1934,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1968,7 +1985,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2044,7 +2061,7 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2118,7 +2135,7 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2192,7 +2209,7 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2266,7 +2283,7 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2340,7 +2357,7 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2414,7 +2431,7 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2493,47 +2510,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2544,7 +2561,7 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2620,7 +2637,7 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2694,7 +2711,7 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2768,7 +2785,7 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2842,7 +2859,7 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +2933,7 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -2990,7 +3007,7 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -3107,11 +3124,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3161,47 +3178,47 @@
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3212,7 +3229,7 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3304,7 +3321,7 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>183</v>
       </c>
@@ -3394,7 +3411,7 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>184</v>
       </c>
@@ -3484,7 +3501,7 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>185</v>
       </c>
@@ -3574,7 +3591,7 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>182</v>
       </c>
@@ -3664,7 +3681,7 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>186</v>
       </c>
@@ -3754,7 +3771,7 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>181</v>
       </c>
@@ -3897,58 +3914,58 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="10" t="s">
+      <c r="V38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="10" t="s">
+      <c r="AD38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4014,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="8"/>
+      <c r="AG39" s="10"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4024,7 +4041,7 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
@@ -4088,7 +4105,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="8"/>
+      <c r="AG40" s="10"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4098,7 +4115,7 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>198</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="8"/>
+      <c r="AG41" s="10"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4172,7 +4189,7 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
@@ -4236,7 +4253,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="8"/>
+      <c r="AG42" s="10"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4246,7 +4263,7 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
@@ -4310,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="8"/>
+      <c r="AG43" s="10"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4320,7 +4337,7 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>197</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="8"/>
+      <c r="AG44" s="10"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4394,7 +4411,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="8"/>
+      <c r="AG45" s="10"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4519,47 +4536,47 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="10" t="s">
+      <c r="V47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="10" t="s">
+      <c r="Z47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="10" t="s">
+      <c r="AD47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4570,7 +4587,7 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4646,7 +4663,7 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>200</v>
       </c>
@@ -4720,7 +4737,7 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -4794,7 +4811,7 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
@@ -4868,7 +4885,7 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
@@ -4942,7 +4959,7 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>197</v>
       </c>
@@ -5016,7 +5033,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5145,47 +5162,47 @@
         <v>110</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="10" t="s">
+      <c r="R56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="10" t="s">
+      <c r="AD56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5196,7 +5213,7 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5288,7 +5305,7 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
@@ -5378,7 +5395,7 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -5468,7 +5485,7 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
@@ -5558,7 +5575,7 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
@@ -5648,7 +5665,7 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>203</v>
       </c>
@@ -5738,7 +5755,7 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
@@ -5881,47 +5898,47 @@
         <v>201</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="10" t="s">
+      <c r="N65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="10" t="s">
+      <c r="R65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="10" t="s">
+      <c r="V65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="10" t="s">
+      <c r="Z65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="10" t="s">
+      <c r="AD65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5932,7 +5949,7 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6024,7 +6041,7 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
@@ -6114,7 +6131,7 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>206</v>
       </c>
@@ -6204,7 +6221,7 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="1" t="s">
         <v>204</v>
       </c>
@@ -6294,7 +6311,7 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6384,7 +6401,7 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -6474,7 +6491,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
@@ -6607,9 +6624,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6655,47 +6672,47 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="10" t="s">
+      <c r="V75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="10" t="s">
+      <c r="Z75" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="10" t="s">
+      <c r="AD75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6706,7 +6723,7 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6798,7 +6815,7 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
@@ -6888,7 +6905,7 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
@@ -6978,7 +6995,7 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
@@ -7068,7 +7085,7 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
@@ -7158,7 +7175,7 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7248,7 +7265,7 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
@@ -7381,9 +7398,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7431,47 +7448,47 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="10" t="s">
+      <c r="R85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="10" t="s">
+      <c r="V85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="10" t="s">
+      <c r="Z85" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="10" t="s">
+      <c r="AD85" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7482,7 +7499,7 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7574,7 +7591,7 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="1" t="s">
         <v>218</v>
       </c>
@@ -7664,7 +7681,7 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
@@ -7754,7 +7771,7 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
@@ -7844,7 +7861,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7919,7 +7936,7 @@
         <v>9</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>10</v>
@@ -7934,7 +7951,7 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
@@ -8009,7 +8026,7 @@
         <v>11</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>11</v>
@@ -8024,7 +8041,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8159,31 +8176,33 @@
       <c r="A94" s="6"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="10" t="s">
+      <c r="N94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="10" t="s">
+      <c r="R94" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8206,7 +8225,7 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -8280,7 +8299,7 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
         <v>145</v>
       </c>
@@ -8352,7 +8371,7 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
         <v>146</v>
       </c>
@@ -8424,7 +8443,7 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
         <v>147</v>
       </c>
@@ -8496,7 +8515,7 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
         <v>148</v>
       </c>
@@ -8568,7 +8587,7 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="1" t="s">
         <v>149</v>
       </c>
@@ -8640,7 +8659,7 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
         <v>150</v>
       </c>
@@ -8759,29 +8778,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="10" t="s">
+      <c r="N103" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="10" t="s">
+      <c r="R103" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8804,7 +8823,7 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -8870,7 +8889,7 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
@@ -8942,7 +8961,7 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
@@ -9014,7 +9033,7 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="1" t="s">
         <v>167</v>
       </c>
@@ -9086,7 +9105,7 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="1" t="s">
         <v>166</v>
       </c>
@@ -9158,7 +9177,7 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="1" t="s">
         <v>164</v>
       </c>
@@ -9230,7 +9249,7 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
@@ -9302,7 +9321,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9321,30 +9340,36 @@
       <c r="G112" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
+      <c r="H112" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9355,17 +9380,19 @@
         <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9384,9 +9411,11 @@
       <c r="G115" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9405,9 +9434,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9426,9 +9457,11 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9447,9 +9480,11 @@
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9468,29 +9503,74 @@
       <c r="G119" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
+  <mergeCells count="99">
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F19:H19"/>
@@ -9506,69 +9586,27 @@
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AF75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethpe\OneDrive\Documents\Git\madden22stats\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA23FD7F-714E-4505-9CD8-3C6654752D63}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
@@ -798,19 +798,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,56 +1131,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1191,7 +1189,7 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1202,47 +1200,47 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1253,7 +1251,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1431,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1521,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1611,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1703,7 +1701,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1793,7 +1791,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1805,7 +1803,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1934,47 +1932,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1985,7 +1983,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2061,7 +2059,7 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2135,7 +2133,7 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2209,7 +2207,7 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2283,7 +2281,7 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2357,7 +2355,7 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2431,7 +2429,7 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2510,47 +2508,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2561,7 +2559,7 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2637,7 +2635,7 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2711,7 +2709,7 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2721,7 +2719,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
@@ -2729,7 +2727,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>11</v>
@@ -2785,7 +2783,7 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2795,7 +2793,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>22</v>
@@ -2859,7 +2857,7 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2933,7 +2931,7 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -3007,7 +3005,7 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -3124,11 +3122,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3178,47 +3176,47 @@
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3229,7 +3227,7 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3321,7 +3319,7 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>183</v>
       </c>
@@ -3411,7 +3409,7 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>184</v>
       </c>
@@ -3501,7 +3499,7 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>185</v>
       </c>
@@ -3591,7 +3589,7 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>182</v>
       </c>
@@ -3681,7 +3679,7 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>186</v>
       </c>
@@ -3771,7 +3769,7 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>181</v>
       </c>
@@ -3914,58 +3912,58 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="7" t="s">
+      <c r="V38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="7" t="s">
+      <c r="AD38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4031,7 +4029,7 @@
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="10"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4041,7 +4039,7 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="10"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4115,7 +4113,7 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>198</v>
       </c>
@@ -4179,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="10"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4189,7 +4187,7 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="10"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4263,7 +4261,7 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
@@ -4327,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="10"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4337,7 +4335,7 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>197</v>
       </c>
@@ -4401,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="10"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4411,7 +4409,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4475,7 +4473,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="10"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4536,47 +4534,47 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="7" t="s">
+      <c r="AD47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4587,7 +4585,7 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4663,7 +4661,7 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>200</v>
       </c>
@@ -4737,7 +4735,7 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -4811,7 +4809,7 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
@@ -4885,7 +4883,7 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
@@ -4959,7 +4957,7 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>197</v>
       </c>
@@ -5033,7 +5031,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5162,47 +5160,47 @@
         <v>110</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="7" t="s">
+      <c r="R56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="7" t="s">
+      <c r="V56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="7" t="s">
+      <c r="AD56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5213,7 +5211,7 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5305,7 +5303,7 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
@@ -5395,7 +5393,7 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -5485,7 +5483,7 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
@@ -5575,7 +5573,7 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
@@ -5665,7 +5663,7 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>203</v>
       </c>
@@ -5755,7 +5753,7 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
@@ -5898,47 +5896,47 @@
         <v>201</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="7" t="s">
+      <c r="V65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="7" t="s">
+      <c r="Z65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="7" t="s">
+      <c r="AD65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5949,7 +5947,7 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6041,7 +6039,7 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
@@ -6131,7 +6129,7 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>206</v>
       </c>
@@ -6221,7 +6219,7 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>204</v>
       </c>
@@ -6311,7 +6309,7 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6401,7 +6399,7 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -6491,7 +6489,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
@@ -6624,9 +6622,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6672,47 +6670,47 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="7" t="s">
+      <c r="R75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="7" t="s">
+      <c r="V75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="7" t="s">
+      <c r="Z75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="7" t="s">
+      <c r="AD75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6723,7 +6721,7 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6815,7 +6813,7 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
@@ -6905,7 +6903,7 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
@@ -6995,7 +6993,7 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
@@ -7085,7 +7083,7 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
@@ -7175,7 +7173,7 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7187,13 +7185,13 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
@@ -7265,7 +7263,7 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
@@ -7398,9 +7396,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7448,47 +7446,47 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="7" t="s">
+      <c r="N85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="7" t="s">
+      <c r="R85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="7" t="s">
+      <c r="V85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="7" t="s">
+      <c r="Z85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="7" t="s">
+      <c r="AD85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7499,7 +7497,7 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7591,7 +7589,7 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
         <v>218</v>
       </c>
@@ -7681,7 +7679,7 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
@@ -7771,7 +7769,7 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
@@ -7861,7 +7859,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7951,7 +7949,7 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
@@ -8041,7 +8039,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8180,29 +8178,29 @@
         <v>222</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="7" t="s">
+      <c r="N94" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="7" t="s">
+      <c r="R94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8225,7 +8223,7 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -8299,7 +8297,7 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
         <v>145</v>
       </c>
@@ -8371,7 +8369,7 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
         <v>146</v>
       </c>
@@ -8443,7 +8441,7 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
         <v>147</v>
       </c>
@@ -8515,7 +8513,7 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
         <v>148</v>
       </c>
@@ -8587,7 +8585,7 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
         <v>149</v>
       </c>
@@ -8659,7 +8657,7 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="1" t="s">
         <v>150</v>
       </c>
@@ -8778,29 +8776,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="7" t="s">
+      <c r="N103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="7" t="s">
+      <c r="R103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8823,7 +8821,7 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -8889,7 +8887,7 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
@@ -8961,7 +8959,7 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
@@ -9033,7 +9031,7 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1" t="s">
         <v>167</v>
       </c>
@@ -9105,7 +9103,7 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
         <v>166</v>
       </c>
@@ -9177,7 +9175,7 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="1" t="s">
         <v>164</v>
       </c>
@@ -9249,7 +9247,7 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
@@ -9321,7 +9319,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9346,7 +9344,7 @@
       <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9369,7 +9367,7 @@
       <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9392,7 +9390,7 @@
       <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9415,7 +9413,7 @@
       <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9438,7 +9436,7 @@
       <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9461,7 +9459,7 @@
       <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9484,7 +9482,7 @@
       <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9508,14 +9506,82 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
     <mergeCell ref="Z75:AB75"/>
     <mergeCell ref="AD75:AF75"/>
     <mergeCell ref="A76:A82"/>
@@ -9531,82 +9597,14 @@
     <mergeCell ref="N75:P75"/>
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="H112:I119"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA23FD7F-714E-4505-9CD8-3C6654752D63}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B6243F-1607-4AD2-A93C-631464DF2271}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="226">
   <si>
     <t>Yards</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>Games Played</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-13</t>
   </si>
 </sst>
 </file>
@@ -798,22 +804,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,42 +1149,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1189,7 +1195,7 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1200,47 +1206,47 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1251,7 +1257,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1341,7 +1347,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1431,7 +1437,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1521,7 +1527,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1533,7 +1539,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1611,7 +1617,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1623,7 +1629,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -1701,7 +1707,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1713,7 +1719,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1723,7 +1729,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -1791,7 +1797,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1803,7 +1809,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1813,7 +1819,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>6</v>
@@ -1932,47 +1938,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1983,7 +1989,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2059,7 +2065,7 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2133,7 +2139,7 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2207,7 +2213,7 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2281,7 +2287,7 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -2339,7 +2345,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>8</v>
@@ -2355,7 +2361,7 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2365,7 +2371,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -2413,7 +2419,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>10</v>
@@ -2429,7 +2435,7 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2439,7 +2445,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -2487,7 +2493,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>12</v>
@@ -2508,47 +2514,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2559,7 +2565,7 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2635,7 +2641,7 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2709,7 +2715,7 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2783,7 +2789,7 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2857,7 +2863,7 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2915,7 +2921,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE24" s="1" t="s">
         <v>8</v>
@@ -2931,7 +2937,7 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -2941,7 +2947,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>18</v>
@@ -2989,7 +2995,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE25" s="1" t="s">
         <v>10</v>
@@ -3005,7 +3011,7 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -3015,7 +3021,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -3063,7 +3069,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>12</v>
@@ -3122,11 +3128,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3176,47 +3182,47 @@
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3227,7 +3233,7 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3319,7 +3325,7 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>183</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>184</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>185</v>
       </c>
@@ -3589,7 +3595,7 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>182</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>186</v>
       </c>
@@ -3769,7 +3775,7 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>181</v>
       </c>
@@ -3781,13 +3787,13 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
@@ -3912,58 +3918,58 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="10" t="s">
+      <c r="V38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="10" t="s">
+      <c r="AD38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4029,7 +4035,7 @@
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="8"/>
+      <c r="AG39" s="11"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4039,7 +4045,7 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="8"/>
+      <c r="AG40" s="11"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4113,7 +4119,7 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>198</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="8"/>
+      <c r="AG41" s="11"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4187,7 +4193,7 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="8"/>
+      <c r="AG42" s="11"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4261,7 +4267,7 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="8"/>
+      <c r="AG43" s="11"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4335,7 +4341,7 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="1" t="s">
         <v>197</v>
       </c>
@@ -4396,10 +4402,10 @@
         <v>10</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="8"/>
+      <c r="AG44" s="11"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4409,7 +4415,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,13 +4473,13 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="8"/>
+      <c r="AG45" s="11"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4534,47 +4540,47 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="10" t="s">
+      <c r="V47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="10" t="s">
+      <c r="Z47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="10" t="s">
+      <c r="AD47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4585,7 +4591,7 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4661,7 +4667,7 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
         <v>200</v>
       </c>
@@ -4735,7 +4741,7 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -4809,7 +4815,7 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
@@ -4883,7 +4889,7 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
@@ -4957,7 +4963,7 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="1" t="s">
         <v>197</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -5031,7 +5037,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5089,7 +5095,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE54" s="1" t="s">
         <v>12</v>
@@ -5160,47 +5166,47 @@
         <v>110</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="10" t="s">
+      <c r="R56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="10" t="s">
+      <c r="AD56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5211,7 +5217,7 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5303,7 +5309,7 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
@@ -5393,7 +5399,7 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -5483,7 +5489,7 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
@@ -5573,7 +5579,7 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
@@ -5663,7 +5669,7 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1" t="s">
         <v>203</v>
       </c>
@@ -5753,7 +5759,7 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
@@ -5825,7 +5831,7 @@
       </c>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE63" s="1" t="s">
         <v>12</v>
@@ -5896,47 +5902,47 @@
         <v>201</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="10" t="s">
+      <c r="N65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="10" t="s">
+      <c r="R65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="10" t="s">
+      <c r="V65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="10" t="s">
+      <c r="Z65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="10" t="s">
+      <c r="AD65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5947,7 +5953,7 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6039,7 +6045,7 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
@@ -6129,7 +6135,7 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="1" t="s">
         <v>206</v>
       </c>
@@ -6219,7 +6225,7 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="1" t="s">
         <v>204</v>
       </c>
@@ -6309,7 +6315,7 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6399,7 +6405,7 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -6489,7 +6495,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
@@ -6561,7 +6567,7 @@
       </c>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE72" s="1" t="s">
         <v>12</v>
@@ -6622,9 +6628,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6670,47 +6676,47 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="10" t="s">
+      <c r="V75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="10" t="s">
+      <c r="Z75" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="10" t="s">
+      <c r="AD75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6721,7 +6727,7 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6813,7 +6819,7 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
@@ -6903,7 +6909,7 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
@@ -6975,7 +6981,7 @@
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE78" s="1" t="s">
         <v>20</v>
@@ -6993,7 +6999,7 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
@@ -7035,7 +7041,7 @@
       </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>10</v>
@@ -7045,7 +7051,7 @@
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>9</v>
@@ -7055,7 +7061,7 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AA79" s="1" t="s">
         <v>8</v>
@@ -7065,7 +7071,7 @@
       </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE79" s="1" t="s">
         <v>28</v>
@@ -7083,7 +7089,7 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
@@ -7145,7 +7151,7 @@
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA80" s="1" t="s">
         <v>10</v>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE80" s="1" t="s">
         <v>9</v>
@@ -7173,7 +7179,7 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
@@ -7235,7 +7241,7 @@
       </c>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA81" s="1" t="s">
         <v>12</v>
@@ -7245,7 +7251,7 @@
       </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE81" s="1" t="s">
         <v>11</v>
@@ -7263,7 +7269,7 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
@@ -7325,7 +7331,7 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AA82" s="1" t="s">
         <v>22</v>
@@ -7341,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
@@ -7396,9 +7402,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7446,47 +7452,47 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="10" t="s">
+      <c r="R85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="10" t="s">
+      <c r="V85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="10" t="s">
+      <c r="Z85" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="10" t="s">
+      <c r="AD85" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7497,7 +7503,7 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7589,7 +7595,7 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="1" t="s">
         <v>218</v>
       </c>
@@ -7679,7 +7685,7 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
@@ -7769,7 +7775,7 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
@@ -7859,7 +7865,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7871,7 +7877,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>14</v>
@@ -7949,7 +7955,7 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
@@ -7961,7 +7967,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>6</v>
@@ -8039,7 +8045,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8051,7 +8057,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>15</v>
@@ -8178,29 +8184,29 @@
         <v>222</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="10" t="s">
+      <c r="N94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="10" t="s">
+      <c r="R94" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8223,7 +8229,7 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -8297,7 +8303,7 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
         <v>145</v>
       </c>
@@ -8369,7 +8375,7 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
         <v>146</v>
       </c>
@@ -8441,7 +8447,7 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
         <v>147</v>
       </c>
@@ -8513,7 +8519,7 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
         <v>148</v>
       </c>
@@ -8585,7 +8591,7 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="1" t="s">
         <v>149</v>
       </c>
@@ -8657,7 +8663,7 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
         <v>150</v>
       </c>
@@ -8776,29 +8782,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="10" t="s">
+      <c r="N103" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="10" t="s">
+      <c r="R103" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8821,7 +8827,7 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -8887,7 +8893,7 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
@@ -8959,7 +8965,7 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
@@ -9031,7 +9037,7 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="1" t="s">
         <v>167</v>
       </c>
@@ -9103,7 +9109,7 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="1" t="s">
         <v>166</v>
       </c>
@@ -9175,7 +9181,7 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="1" t="s">
         <v>164</v>
       </c>
@@ -9247,7 +9253,7 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
@@ -9319,7 +9325,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9338,13 +9344,13 @@
       <c r="G112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="H112" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I112" s="12"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9363,11 +9369,11 @@
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9386,11 +9392,11 @@
       <c r="G114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9409,11 +9415,11 @@
       <c r="G115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9432,11 +9438,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9455,11 +9461,11 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9478,11 +9484,11 @@
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9501,32 +9507,74 @@
       <c r="G119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="H112:I119"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F19:H19"/>
@@ -9542,69 +9590,27 @@
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AF75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B6243F-1607-4AD2-A93C-631464DF2271}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB4F810-B1B8-430A-B488-1632E20D0862}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
   <si>
     <t>Yards</t>
   </si>
@@ -282,15 +282,6 @@
     <t>Yards/game</t>
   </si>
   <si>
-    <t>90+</t>
-  </si>
-  <si>
-    <t>75-90</t>
-  </si>
-  <si>
-    <t>60-75</t>
-  </si>
-  <si>
     <t>45-60</t>
   </si>
   <si>
@@ -312,18 +303,6 @@
     <t>0.2-0.35</t>
   </si>
   <si>
-    <t>25-45</t>
-  </si>
-  <si>
-    <t>0-25</t>
-  </si>
-  <si>
-    <t>65+</t>
-  </si>
-  <si>
-    <t>50-65</t>
-  </si>
-  <si>
     <t>0-10</t>
   </si>
   <si>
@@ -333,9 +312,6 @@
     <t>20-35</t>
   </si>
   <si>
-    <t>35-50</t>
-  </si>
-  <si>
     <t>0.65+</t>
   </si>
   <si>
@@ -712,6 +688,24 @@
   </si>
   <si>
     <t>-13</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+  <si>
+    <t>70-85</t>
+  </si>
+  <si>
+    <t>55-70</t>
+  </si>
+  <si>
+    <t>40-55</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>35-45</t>
   </si>
 </sst>
 </file>
@@ -804,22 +798,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,42 +1143,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1195,58 +1189,58 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1257,7 +1251,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1347,7 +1341,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1399,30 +1393,30 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>11</v>
@@ -1437,7 +1431,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1527,7 +1521,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1617,7 +1611,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1707,7 +1701,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1797,7 +1791,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1809,7 +1803,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1835,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
@@ -1855,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
@@ -1931,54 +1925,54 @@
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1989,14 +1983,14 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2065,12 +2059,12 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2139,12 +2133,12 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2213,12 +2207,12 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2287,12 +2281,12 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2361,12 +2355,12 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2435,9 +2429,9 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>72</v>
@@ -2445,7 +2439,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -2514,47 +2508,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2565,14 +2559,14 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2641,12 +2635,12 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2715,12 +2709,12 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2789,12 +2783,12 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2863,12 +2857,12 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2937,12 +2931,12 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3011,17 +3005,17 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -3128,11 +3122,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3176,53 +3170,53 @@
         <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3233,17 +3227,17 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -3325,15 +3319,15 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -3415,15 +3409,15 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -3505,15 +3499,15 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -3595,15 +3589,15 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -3685,15 +3679,15 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
@@ -3775,25 +3769,25 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
@@ -3908,80 +3902,80 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="7" t="s">
+      <c r="V38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="7" t="s">
+      <c r="AD38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>48</v>
@@ -3989,7 +3983,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>48</v>
@@ -3997,7 +3991,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>48</v>
@@ -4005,7 +3999,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>48</v>
@@ -4013,7 +4007,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>48</v>
@@ -4021,7 +4015,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>48</v>
@@ -4029,13 +4023,13 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AE39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="11"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4045,9 +4039,9 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
@@ -4109,7 +4103,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="11"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4119,9 +4113,9 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>39</v>
@@ -4183,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="11"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4193,9 +4187,9 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -4257,7 +4251,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="11"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4267,9 +4261,9 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -4331,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="11"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4341,9 +4335,9 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -4405,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="11"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4415,7 +4409,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,7 +4473,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="11"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4533,54 +4527,54 @@
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="7" t="s">
+      <c r="AD47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4591,19 +4585,19 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>48</v>
@@ -4611,7 +4605,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>48</v>
@@ -4619,7 +4613,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>48</v>
@@ -4627,7 +4621,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>48</v>
@@ -4635,7 +4629,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>48</v>
@@ -4643,7 +4637,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>48</v>
@@ -4651,7 +4645,7 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AE48" s="1" t="s">
         <v>48</v>
@@ -4667,9 +4661,9 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -4741,9 +4735,9 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -4815,9 +4809,9 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -4889,9 +4883,9 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -4963,9 +4957,9 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -5037,7 +5031,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5154,59 +5148,59 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="7" t="s">
+      <c r="R56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="7" t="s">
+      <c r="V56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="7" t="s">
+      <c r="AD56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5217,21 +5211,21 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>48</v>
@@ -5241,7 +5235,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>48</v>
@@ -5251,7 +5245,7 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>48</v>
@@ -5261,7 +5255,7 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>48</v>
@@ -5271,7 +5265,7 @@
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>48</v>
@@ -5281,7 +5275,7 @@
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AA57" s="1" t="s">
         <v>48</v>
@@ -5291,7 +5285,7 @@
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>48</v>
@@ -5309,9 +5303,9 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>49</v>
@@ -5399,15 +5393,15 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5489,15 +5483,15 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -5579,15 +5573,15 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
@@ -5669,9 +5663,9 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -5759,9 +5753,9 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -5893,56 +5887,56 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="7" t="s">
+      <c r="V65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="7" t="s">
+      <c r="Z65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="7" t="s">
+      <c r="AD65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5953,24 +5947,24 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>48</v>
@@ -5980,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>48</v>
@@ -5990,7 +5984,7 @@
         <v>47</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>48</v>
@@ -6000,7 +5994,7 @@
         <v>47</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>48</v>
@@ -6010,7 +6004,7 @@
         <v>47</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>48</v>
@@ -6020,7 +6014,7 @@
         <v>47</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AB66" s="1" t="s">
         <v>48</v>
@@ -6030,7 +6024,7 @@
         <v>47</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>48</v>
@@ -6045,12 +6039,12 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -6135,12 +6129,12 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -6225,9 +6219,9 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>69</v>
@@ -6315,9 +6309,9 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>70</v>
@@ -6405,9 +6399,9 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>71</v>
@@ -6495,9 +6489,9 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
@@ -6628,9 +6622,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6671,52 +6665,52 @@
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="7" t="s">
+      <c r="R75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="7" t="s">
+      <c r="V75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="7" t="s">
+      <c r="Z75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="7" t="s">
+      <c r="AD75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6727,17 +6721,17 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -6787,7 +6781,7 @@
         <v>51</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
@@ -6819,15 +6813,15 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -6909,15 +6903,15 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -6999,15 +6993,15 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -7089,15 +7083,15 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -7179,15 +7173,15 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="11"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -7269,15 +7263,15 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
@@ -7402,9 +7396,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7444,55 +7438,55 @@
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="7" t="s">
+      <c r="N85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="7" t="s">
+      <c r="R85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="7" t="s">
+      <c r="V85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="7" t="s">
+      <c r="Z85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="7" t="s">
+      <c r="AD85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7503,17 +7497,17 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
@@ -7595,15 +7589,15 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
@@ -7685,15 +7679,15 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
@@ -7775,15 +7769,15 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
@@ -7865,7 +7859,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +7867,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
@@ -7955,15 +7949,15 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
@@ -7987,7 +7981,7 @@
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>16</v>
@@ -8045,7 +8039,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8053,7 +8047,7 @@
         <v>42</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -8067,7 +8061,7 @@
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>6</v>
@@ -8077,7 +8071,7 @@
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>14</v>
@@ -8181,32 +8175,32 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="F94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="7" t="s">
+      <c r="N94" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="7" t="s">
+      <c r="R94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8229,57 +8223,57 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
-        <v>138</v>
+      <c r="A95" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -8303,15 +8297,15 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
@@ -8375,15 +8369,15 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
@@ -8447,15 +8441,15 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
@@ -8519,15 +8513,15 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
@@ -8591,15 +8585,15 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -8663,15 +8657,15 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
@@ -8782,29 +8776,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="F103" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="7" t="s">
+      <c r="N103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="7" t="s">
+      <c r="R103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8827,48 +8821,48 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
-        <v>162</v>
+      <c r="A104" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -8893,15 +8887,15 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
@@ -8965,15 +8959,15 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
@@ -9037,15 +9031,15 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -9109,15 +9103,15 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -9181,15 +9175,15 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
@@ -9253,15 +9247,15 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
@@ -9325,7 +9319,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9344,13 +9338,13 @@
       <c r="G112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I112" s="9"/>
+      <c r="H112" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9369,11 +9363,11 @@
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9392,11 +9386,11 @@
       <c r="G114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9415,11 +9409,11 @@
       <c r="G115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9438,11 +9432,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9461,11 +9455,11 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9484,11 +9478,11 @@
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9507,19 +9501,87 @@
       <c r="G119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
     <mergeCell ref="Z75:AB75"/>
     <mergeCell ref="AD75:AF75"/>
     <mergeCell ref="A76:A82"/>
@@ -9535,82 +9597,14 @@
     <mergeCell ref="N75:P75"/>
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="H112:I119"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethpe\OneDrive\Documents\Git\madden22stats\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BFDC62EA-92D5-4D5A-8117-4E2823A76894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="223">
   <si>
     <t>Yards</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>0-0.25</t>
-  </si>
-  <si>
-    <t>TOs (5 Columns)</t>
   </si>
   <si>
     <t>PD/game</t>
@@ -798,19 +795,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,42 +1142,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1191,7 +1188,7 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1202,47 +1199,47 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1253,7 +1250,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1343,7 +1340,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1430,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1520,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1610,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1703,7 +1700,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1793,7 +1790,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1934,47 +1931,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1985,7 +1982,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2061,7 +2058,7 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2135,7 +2132,7 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2209,7 +2206,7 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2283,7 +2280,7 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2357,7 +2354,7 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2431,7 +2428,7 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2510,47 +2507,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2561,7 +2558,7 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2637,7 +2634,7 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2711,7 +2708,7 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2785,7 +2782,7 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2859,7 +2856,7 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2933,7 +2930,7 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -3007,7 +3004,7 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -3124,11 +3121,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3178,47 +3175,47 @@
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3229,17 +3226,17 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -3321,15 +3318,15 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -3411,15 +3408,15 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -3501,15 +3498,15 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -3591,15 +3588,15 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -3681,15 +3678,15 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
@@ -3771,15 +3768,15 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
@@ -3910,69 +3907,69 @@
         <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="7" t="s">
+      <c r="V38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="7" t="s">
+      <c r="AD38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4031,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="10"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4041,7 +4038,7 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
@@ -4105,7 +4102,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="10"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4115,9 +4112,9 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>39</v>
@@ -4179,7 +4176,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="10"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4189,9 +4186,9 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -4253,7 +4250,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="10"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4263,9 +4260,9 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -4327,7 +4324,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="10"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4337,9 +4334,9 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -4401,7 +4398,7 @@
         <v>10</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="10"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4411,7 +4408,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4475,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="10"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4532,51 +4529,51 @@
         <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="7" t="s">
+      <c r="AD47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4587,14 +4584,14 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4663,9 +4660,9 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -4737,7 +4734,7 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -4811,7 +4808,7 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
@@ -4885,7 +4882,7 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
@@ -4959,9 +4956,9 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -5033,7 +5030,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5156,53 +5153,53 @@
         <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="7" t="s">
+      <c r="R56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="7" t="s">
+      <c r="V56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="7" t="s">
+      <c r="AD56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5213,17 +5210,17 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -5305,7 +5302,7 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
@@ -5395,7 +5392,7 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5485,7 +5482,7 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
@@ -5575,7 +5572,7 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
@@ -5665,9 +5662,9 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -5755,7 +5752,7 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
@@ -5895,50 +5892,50 @@
         <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="7" t="s">
+      <c r="V65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="7" t="s">
+      <c r="Z65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="7" t="s">
+      <c r="AD65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5949,7 +5946,7 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5959,7 +5956,7 @@
         <v>120</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -6041,12 +6038,12 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -6131,9 +6128,9 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>113</v>
@@ -6221,9 +6218,9 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>69</v>
@@ -6311,7 +6308,7 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6401,7 +6398,7 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -6491,7 +6488,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
@@ -6624,9 +6621,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6667,52 +6664,52 @@
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="7" t="s">
+      <c r="R75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="7" t="s">
+      <c r="V75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="7" t="s">
+      <c r="Z75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="7" t="s">
+      <c r="AD75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6723,17 +6720,17 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -6783,7 +6780,7 @@
         <v>51</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
@@ -6815,15 +6812,15 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -6905,15 +6902,15 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -6995,15 +6992,15 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -7085,15 +7082,15 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -7175,7 +7172,7 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>128</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -7265,7 +7262,7 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>129</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
@@ -7398,9 +7395,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7443,52 +7440,52 @@
         <v>107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="7" t="s">
+      <c r="N85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="7" t="s">
+      <c r="R85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="7" t="s">
+      <c r="V85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="7" t="s">
+      <c r="Z85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="7" t="s">
+      <c r="AD85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7499,17 +7496,17 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
@@ -7591,15 +7588,15 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
@@ -7681,12 +7678,12 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>129</v>
@@ -7771,15 +7768,15 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
@@ -7861,7 +7858,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7869,7 +7866,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
@@ -7951,7 +7948,7 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>122</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
@@ -8041,7 +8038,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8177,32 +8174,32 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="F94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="7" t="s">
+      <c r="N94" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="7" t="s">
+      <c r="R94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8225,57 +8222,57 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
-        <v>138</v>
+      <c r="A95" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="P95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S95" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="T95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -8299,15 +8296,15 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
@@ -8371,15 +8368,15 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
@@ -8443,15 +8440,15 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
@@ -8515,15 +8512,15 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
@@ -8587,15 +8584,15 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -8659,15 +8656,15 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
@@ -8778,29 +8775,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="F103" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="7" t="s">
+      <c r="N103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="7" t="s">
+      <c r="R103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8823,48 +8820,48 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -8889,15 +8886,15 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
@@ -8961,15 +8958,15 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
@@ -9033,15 +9030,15 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -9105,15 +9102,15 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -9177,15 +9174,15 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
@@ -9249,15 +9246,15 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
@@ -9321,7 +9318,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9341,12 +9338,12 @@
         <v>80</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9369,7 +9366,7 @@
       <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9392,7 +9389,7 @@
       <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9415,7 +9412,7 @@
       <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9438,7 +9435,7 @@
       <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9461,7 +9458,7 @@
       <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9484,7 +9481,7 @@
       <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9508,14 +9505,82 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
     <mergeCell ref="Z75:AB75"/>
     <mergeCell ref="AD75:AF75"/>
     <mergeCell ref="A76:A82"/>
@@ -9531,82 +9596,14 @@
     <mergeCell ref="N75:P75"/>
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="H112:I119"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjpeck/Documents/GitHub/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB4F810-B1B8-430A-B488-1632E20D0862}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D954B-7856-8B44-910A-E08D6B4F58FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
+    <sheet name="Columnar" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="249">
   <si>
     <t>Yards</t>
   </si>
@@ -706,13 +707,88 @@
   </si>
   <si>
     <t>35-45</t>
+  </si>
+  <si>
+    <t>tier_0</t>
+  </si>
+  <si>
+    <t>ScrimmageYardsPerGame</t>
+  </si>
+  <si>
+    <t>StatCheck</t>
+  </si>
+  <si>
+    <t>ScrimmmageTDsPerGame</t>
+  </si>
+  <si>
+    <t>StatValue</t>
+  </si>
+  <si>
+    <t>SkillPoint</t>
+  </si>
+  <si>
+    <t>80-99</t>
+  </si>
+  <si>
+    <t>100-250</t>
+  </si>
+  <si>
+    <t>60-79</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>20-39</t>
+  </si>
+  <si>
+    <t>0-19</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0.60-0.79</t>
+  </si>
+  <si>
+    <t>0.40-0.59</t>
+  </si>
+  <si>
+    <t>0.20-0.39</t>
+  </si>
+  <si>
+    <t>0.00-0.19</t>
+  </si>
+  <si>
+    <t>0.80-0.99</t>
+  </si>
+  <si>
+    <t>tier_1</t>
+  </si>
+  <si>
+    <t>tier_2</t>
+  </si>
+  <si>
+    <t>tier_3</t>
+  </si>
+  <si>
+    <t>tier_4</t>
+  </si>
+  <si>
+    <t>tier_5</t>
+  </si>
+  <si>
+    <t>RatingTier</t>
+  </si>
+  <si>
+    <t>StatTier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +836,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -781,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -797,6 +885,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,54 +1222,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1188,8 +1279,8 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1200,47 +1291,47 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1250,8 +1341,8 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1340,8 +1431,8 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1430,8 +1521,8 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1520,8 +1611,8 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1610,8 +1701,8 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1700,8 +1791,8 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1790,8 +1881,8 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1971,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1922,7 +2013,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>119</v>
@@ -1932,47 +2023,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1982,8 +2073,8 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2058,8 +2149,8 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>218</v>
       </c>
@@ -2132,8 +2223,8 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>219</v>
       </c>
@@ -2206,8 +2297,8 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>220</v>
       </c>
@@ -2280,8 +2371,8 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>221</v>
       </c>
@@ -2354,8 +2445,8 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2428,8 +2519,8 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
@@ -2502,53 +2593,53 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2558,8 +2649,8 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2634,8 +2725,8 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>222</v>
       </c>
@@ -2708,8 +2799,8 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
@@ -2782,8 +2873,8 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
@@ -2856,8 +2947,8 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
@@ -2930,8 +3021,8 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
@@ -3004,8 +3095,8 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -3078,7 +3169,7 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
     </row>
-    <row r="27" spans="1:40" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3120,13 +3211,13 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3164,7 +3255,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>56</v>
@@ -3176,47 +3267,47 @@
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3226,8 +3317,8 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3318,8 +3409,8 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>175</v>
       </c>
@@ -3408,8 +3499,8 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>176</v>
       </c>
@@ -3498,8 +3589,8 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>177</v>
       </c>
@@ -3588,8 +3679,8 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>174</v>
       </c>
@@ -3678,8 +3769,8 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
@@ -3768,8 +3859,8 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>173</v>
       </c>
@@ -3858,7 +3949,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3900,7 +3991,7 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
@@ -3912,58 +4003,58 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="10" t="s">
+      <c r="V38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="10" t="s">
+      <c r="AD38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4029,7 +4120,7 @@
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="8"/>
+      <c r="AG39" s="11"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4038,8 +4129,8 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
@@ -4103,7 +4194,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="8"/>
+      <c r="AG40" s="11"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4112,8 +4203,8 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>190</v>
       </c>
@@ -4177,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="8"/>
+      <c r="AG41" s="11"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4186,8 +4277,8 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>191</v>
       </c>
@@ -4251,7 +4342,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="8"/>
+      <c r="AG42" s="11"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4260,8 +4351,8 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>188</v>
       </c>
@@ -4325,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="8"/>
+      <c r="AG43" s="11"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4334,8 +4425,8 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
       <c r="B44" s="1" t="s">
         <v>189</v>
       </c>
@@ -4399,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="8"/>
+      <c r="AG44" s="11"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4408,8 +4499,8 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4473,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="8"/>
+      <c r="AG45" s="11"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4482,7 +4573,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4524,7 +4615,7 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>102</v>
@@ -4534,47 +4625,47 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="10" t="s">
+      <c r="V47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="10" t="s">
+      <c r="Z47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="10" t="s">
+      <c r="AD47" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4584,8 +4675,8 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4660,8 +4751,8 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
         <v>192</v>
       </c>
@@ -4734,8 +4825,8 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
@@ -4808,8 +4899,8 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
@@ -4882,8 +4973,8 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
@@ -4956,8 +5047,8 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
       <c r="B53" s="1" t="s">
         <v>189</v>
       </c>
@@ -5030,8 +5121,8 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5104,7 +5195,7 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5146,7 +5237,7 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -5160,47 +5251,47 @@
         <v>102</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="10" t="s">
+      <c r="R56" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="10" t="s">
+      <c r="AD56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5210,8 +5301,8 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5302,8 +5393,8 @@
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -5392,8 +5483,8 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
         <v>108</v>
       </c>
@@ -5482,8 +5573,8 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
       <c r="B60" s="1" t="s">
         <v>105</v>
       </c>
@@ -5572,8 +5663,8 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
       </c>
@@ -5662,8 +5753,8 @@
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
       <c r="B62" s="1" t="s">
         <v>195</v>
       </c>
@@ -5752,8 +5843,8 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
       <c r="B63" s="1" t="s">
         <v>94</v>
       </c>
@@ -5842,7 +5933,7 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5884,7 +5975,7 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>102</v>
@@ -5896,47 +5987,47 @@
         <v>193</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="10" t="s">
+      <c r="N65" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="10" t="s">
+      <c r="R65" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="10" t="s">
+      <c r="V65" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="10" t="s">
+      <c r="Z65" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="10" t="s">
+      <c r="AD65" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5946,8 +6037,8 @@
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6038,8 +6129,8 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
@@ -6128,8 +6219,8 @@
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
       <c r="B68" s="1" t="s">
         <v>198</v>
       </c>
@@ -6218,8 +6309,8 @@
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
       <c r="B69" s="1" t="s">
         <v>196</v>
       </c>
@@ -6308,8 +6399,8 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
@@ -6398,8 +6489,8 @@
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
       <c r="B71" s="1" t="s">
         <v>116</v>
       </c>
@@ -6488,8 +6579,8 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
       <c r="B72" s="1" t="s">
         <v>117</v>
       </c>
@@ -6578,7 +6669,7 @@
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
     </row>
-    <row r="73" spans="1:40" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" ht="21" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6620,11 +6711,11 @@
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6662,7 +6753,7 @@
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>193</v>
@@ -6670,47 +6761,47 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="10" t="s">
+      <c r="V75" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="10" t="s">
+      <c r="Z75" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="10" t="s">
+      <c r="AD75" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6720,8 +6811,8 @@
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6812,8 +6903,8 @@
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
@@ -6902,8 +6993,8 @@
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
@@ -6992,8 +7083,8 @@
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
@@ -7082,8 +7173,8 @@
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
@@ -7172,8 +7263,8 @@
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7262,8 +7353,8 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
     </row>
-    <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
+    <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
@@ -7352,7 +7443,7 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
     </row>
-    <row r="83" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7394,11 +7485,11 @@
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7436,7 +7527,7 @@
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>99</v>
       </c>
@@ -7446,47 +7537,47 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="10" t="s">
+      <c r="R85" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="10" t="s">
+      <c r="V85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="10" t="s">
+      <c r="Z85" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="10" t="s">
+      <c r="AD85" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7496,8 +7587,8 @@
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7588,8 +7679,8 @@
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
       <c r="B87" s="1" t="s">
         <v>210</v>
       </c>
@@ -7678,8 +7769,8 @@
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
@@ -7768,8 +7859,8 @@
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
@@ -7858,8 +7949,8 @@
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7948,8 +8039,8 @@
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
@@ -8038,8 +8129,8 @@
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8128,7 +8219,7 @@
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8170,7 +8261,7 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
     </row>
-    <row r="94" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8178,29 +8269,29 @@
         <v>214</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="10" t="s">
+      <c r="N94" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="10" t="s">
+      <c r="R94" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8222,8 +8313,8 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
     </row>
-    <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -8296,8 +8387,8 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
     </row>
-    <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
+    <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
       <c r="B96" s="1" t="s">
         <v>137</v>
       </c>
@@ -8368,8 +8459,8 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
     </row>
-    <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
+    <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
       <c r="B97" s="1" t="s">
         <v>138</v>
       </c>
@@ -8440,8 +8531,8 @@
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
     </row>
-    <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
+    <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
       <c r="B98" s="1" t="s">
         <v>139</v>
       </c>
@@ -8512,8 +8603,8 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
     </row>
-    <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
+    <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12"/>
       <c r="B99" s="1" t="s">
         <v>140</v>
       </c>
@@ -8584,8 +8675,8 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
     </row>
-    <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+    <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>141</v>
       </c>
@@ -8656,8 +8747,8 @@
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
     </row>
-    <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
+    <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12"/>
       <c r="B101" s="1" t="s">
         <v>142</v>
       </c>
@@ -8728,7 +8819,7 @@
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
     </row>
-    <row r="102" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8770,35 +8861,35 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
     </row>
-    <row r="103" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="10" t="s">
+      <c r="N103" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="10" t="s">
+      <c r="R103" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8820,8 +8911,8 @@
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
     </row>
-    <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -8886,8 +8977,8 @@
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
     </row>
-    <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
+    <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
@@ -8958,8 +9049,8 @@
       <c r="AM105" s="1"/>
       <c r="AN105" s="1"/>
     </row>
-    <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
+    <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12"/>
       <c r="B106" s="1" t="s">
         <v>94</v>
       </c>
@@ -9030,8 +9121,8 @@
       <c r="AM106" s="1"/>
       <c r="AN106" s="1"/>
     </row>
-    <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
+    <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12"/>
       <c r="B107" s="1" t="s">
         <v>159</v>
       </c>
@@ -9102,8 +9193,8 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
     </row>
-    <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
+    <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>158</v>
       </c>
@@ -9174,8 +9265,8 @@
       <c r="AM108" s="1"/>
       <c r="AN108" s="1"/>
     </row>
-    <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
+    <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12"/>
       <c r="B109" s="1" t="s">
         <v>156</v>
       </c>
@@ -9246,8 +9337,8 @@
       <c r="AM109" s="1"/>
       <c r="AN109" s="1"/>
     </row>
-    <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
+    <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
       <c r="B110" s="1" t="s">
         <v>157</v>
       </c>
@@ -9318,8 +9409,8 @@
       <c r="AM110" s="1"/>
       <c r="AN110" s="1"/>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9338,13 +9429,13 @@
       <c r="G112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="H112" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="12"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9363,11 +9454,11 @@
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="12"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9386,11 +9477,11 @@
       <c r="G114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="12"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9409,11 +9500,11 @@
       <c r="G115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="12"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9432,11 +9523,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="12"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9455,11 +9546,11 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="12"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9478,11 +9569,11 @@
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="12"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9501,8 +9592,8 @@
       <c r="G119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="99">
@@ -9609,4 +9700,449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067749F8-D8D1-8A47-A730-8904EF0095EC}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjpeck/Documents/GitHub/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D954B-7856-8B44-910A-E08D6B4F58FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291FC080-656A-CF49-82CA-C00DB5C289D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ProReg" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="244">
   <si>
     <t>Yards</t>
   </si>
@@ -727,42 +727,12 @@
     <t>SkillPoint</t>
   </si>
   <si>
-    <t>80-99</t>
-  </si>
-  <si>
     <t>100-250</t>
   </si>
   <si>
-    <t>60-79</t>
-  </si>
-  <si>
-    <t>40-59</t>
-  </si>
-  <si>
-    <t>20-39</t>
-  </si>
-  <si>
-    <t>0-19</t>
-  </si>
-  <si>
     <t>1-5</t>
   </si>
   <si>
-    <t>0.60-0.79</t>
-  </si>
-  <si>
-    <t>0.40-0.59</t>
-  </si>
-  <si>
-    <t>0.20-0.39</t>
-  </si>
-  <si>
-    <t>0.00-0.19</t>
-  </si>
-  <si>
-    <t>0.80-0.99</t>
-  </si>
-  <si>
     <t>tier_1</t>
   </si>
   <si>
@@ -782,6 +752,21 @@
   </si>
   <si>
     <t>StatTier</t>
+  </si>
+  <si>
+    <t>0.80-1</t>
+  </si>
+  <si>
+    <t>0.60-0.8</t>
+  </si>
+  <si>
+    <t>0.40-0.6</t>
+  </si>
+  <si>
+    <t>0.20-0.4</t>
+  </si>
+  <si>
+    <t>0.00-0.2</t>
   </si>
 </sst>
 </file>
@@ -9707,7 +9692,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9717,7 +9702,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>226</v>
@@ -9726,7 +9711,7 @@
         <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
         <v>229</v>
@@ -9740,7 +9725,7 @@
         <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>224</v>
@@ -9757,10 +9742,10 @@
         <v>225</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
@@ -9774,10 +9759,10 @@
         <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>18</v>
@@ -9791,10 +9776,10 @@
         <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -9808,10 +9793,10 @@
         <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
@@ -9825,10 +9810,10 @@
         <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>216</v>
@@ -9842,7 +9827,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>224</v>
@@ -9859,10 +9844,10 @@
         <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>12</v>
@@ -9876,10 +9861,10 @@
         <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>16</v>
@@ -9893,10 +9878,10 @@
         <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>7</v>
@@ -9910,10 +9895,10 @@
         <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>18</v>
@@ -9927,10 +9912,10 @@
         <v>227</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>26</v>
@@ -9938,13 +9923,13 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>224</v>
@@ -9955,16 +9940,16 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -9972,16 +9957,16 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -9989,16 +9974,16 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -10006,16 +9991,16 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -10023,16 +10008,16 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -10040,13 +10025,13 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
         <v>224</v>
@@ -10057,16 +10042,16 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -10074,16 +10059,16 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -10091,16 +10076,16 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
@@ -10108,16 +10093,16 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -10125,16 +10110,16 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjpeck/Documents/GitHub/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291FC080-656A-CF49-82CA-C00DB5C289D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF46A9E-1C5B-2341-B6BE-BCD8BA7DD923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -730,9 +730,6 @@
     <t>100-250</t>
   </si>
   <si>
-    <t>1-5</t>
-  </si>
-  <si>
     <t>tier_1</t>
   </si>
   <si>
@@ -767,6 +764,9 @@
   </si>
   <si>
     <t>0.00-0.2</t>
+  </si>
+  <si>
+    <t>1.00-5.00</t>
   </si>
 </sst>
 </file>
@@ -9692,7 +9692,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9702,7 +9702,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
         <v>226</v>
@@ -9711,7 +9711,7 @@
         <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>229</v>
@@ -9745,7 +9745,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
@@ -9762,7 +9762,7 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>18</v>
@@ -9779,7 +9779,7 @@
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -9796,7 +9796,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
@@ -9813,7 +9813,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>216</v>
@@ -9827,7 +9827,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
         <v>224</v>
@@ -9844,10 +9844,10 @@
         <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>12</v>
@@ -9861,10 +9861,10 @@
         <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>16</v>
@@ -9878,10 +9878,10 @@
         <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>7</v>
@@ -9895,10 +9895,10 @@
         <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>18</v>
@@ -9912,10 +9912,10 @@
         <v>227</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>26</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>225</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>225</v>
@@ -9949,7 +9949,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>225</v>
@@ -9966,7 +9966,7 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>225</v>
@@ -9983,7 +9983,7 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>225</v>
@@ -10000,7 +10000,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -10008,7 +10008,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>225</v>
@@ -10017,7 +10017,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -10025,13 +10025,13 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
         <v>224</v>
@@ -10042,16 +10042,16 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -10059,16 +10059,16 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -10076,16 +10076,16 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
@@ -10093,16 +10093,16 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -10110,16 +10110,16 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>

--- a/Files/Progression Regression Logic.xlsx
+++ b/Files/Progression Regression Logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/madden22stats/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB4F810-B1B8-430A-B488-1632E20D0862}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{4525A2FD-8FCF-4C1C-8965-B5B6FED6E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06C9458-1D6B-40D0-93C4-8E9C8C749F6E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C2E4B7-FBFF-4F69-A3A4-847FA497B9AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="227">
   <si>
     <t>Yards</t>
   </si>
@@ -312,9 +312,6 @@
     <t>20-35</t>
   </si>
   <si>
-    <t>0.65+</t>
-  </si>
-  <si>
     <t>0.1-0.2</t>
   </si>
   <si>
@@ -706,6 +703,18 @@
   </si>
   <si>
     <t>35-45</t>
+  </si>
+  <si>
+    <t>0.60+</t>
+  </si>
+  <si>
+    <t>0.45-0.60</t>
+  </si>
+  <si>
+    <t>0.30-0.45</t>
+  </si>
+  <si>
+    <t>0.2-0.30</t>
   </si>
 </sst>
 </file>
@@ -798,22 +807,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39242688-C415-4EFE-B0A8-90C7EAED6EC3}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,42 +1152,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -1189,58 +1198,58 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1251,7 +1260,7 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1341,7 +1350,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1431,7 +1440,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1530,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1611,7 +1620,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1701,7 +1710,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +1800,7 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1803,7 +1812,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1925,54 +1934,54 @@
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1983,7 +1992,7 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2059,9 +2068,9 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -2133,9 +2142,9 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>85</v>
@@ -2207,9 +2216,9 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>86</v>
@@ -2281,9 +2290,9 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>87</v>
@@ -2355,7 +2364,7 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2429,7 +2438,7 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
@@ -2439,7 +2448,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -2508,47 +2517,47 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2559,7 +2568,7 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2635,12 +2644,12 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2709,12 +2718,12 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2783,12 +2792,12 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2857,12 +2866,12 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2931,12 +2940,12 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3005,17 +3014,17 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -3122,11 +3131,11 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3170,53 +3179,53 @@
         <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3227,17 +3236,17 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -3319,15 +3328,15 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -3409,15 +3418,15 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -3499,15 +3508,15 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -3589,15 +3598,15 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -3679,15 +3688,15 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
@@ -3769,25 +3778,25 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
@@ -3902,80 +3911,80 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="10" t="s">
+      <c r="V38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="10" t="s">
+      <c r="AD38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>48</v>
@@ -3983,7 +3992,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>48</v>
@@ -3991,7 +4000,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>48</v>
@@ -3999,7 +4008,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>48</v>
@@ -4007,7 +4016,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>48</v>
@@ -4015,7 +4024,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>48</v>
@@ -4023,13 +4032,13 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="8"/>
+      <c r="AG39" s="11"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4039,9 +4048,9 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
@@ -4103,7 +4112,7 @@
         <v>31</v>
       </c>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="8"/>
+      <c r="AG40" s="11"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4113,9 +4122,9 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>39</v>
@@ -4177,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="8"/>
+      <c r="AG41" s="11"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4187,9 +4196,9 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -4251,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="8"/>
+      <c r="AG42" s="11"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -4261,9 +4270,9 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -4325,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="8"/>
+      <c r="AG43" s="11"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -4335,9 +4344,9 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -4399,7 +4408,7 @@
         <v>11</v>
       </c>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="8"/>
+      <c r="AG44" s="11"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -4409,7 +4418,7 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="8"/>
+      <c r="AG45" s="11"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -4527,54 +4536,54 @@
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="10" t="s">
+      <c r="V47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="10" t="s">
+      <c r="Z47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="10" t="s">
+      <c r="AD47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4585,19 +4594,19 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>48</v>
@@ -4605,7 +4614,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>48</v>
@@ -4613,7 +4622,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>48</v>
@@ -4621,7 +4630,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>48</v>
@@ -4629,7 +4638,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>48</v>
@@ -4637,7 +4646,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>48</v>
@@ -4645,7 +4654,7 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE48" s="1" t="s">
         <v>48</v>
@@ -4661,9 +4670,9 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -4735,9 +4744,9 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -4809,9 +4818,9 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -4883,9 +4892,9 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -4957,9 +4966,9 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -5031,7 +5040,7 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -5148,59 +5157,59 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="10" t="s">
+      <c r="R56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="10" t="s">
+      <c r="AD56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5211,21 +5220,21 @@
       <c r="AN56" s="1"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>48</v>
@@ -5235,7 +5244,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>48</v>
@@ -5245,7 +5254,7 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>48</v>
@@ -5255,7 +5264,7 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>48</v>
@@ -5265,7 +5274,7 @@
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>48</v>
@@ -5275,7 +5284,7 @@
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="1" t="s">
         <v>48</v>
@@ -5285,7 +5294,7 @@
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>48</v>
@@ -5303,9 +5312,9 @@
       <c r="AN57" s="1"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>49</v>
@@ -5393,15 +5402,15 @@
       <c r="AN58" s="1"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5483,15 +5492,15 @@
       <c r="AN59" s="1"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -5573,15 +5582,15 @@
       <c r="AN60" s="1"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
@@ -5663,9 +5672,9 @@
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -5753,9 +5762,9 @@
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -5887,56 +5896,56 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="10" t="s">
+      <c r="N65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="10" t="s">
+      <c r="R65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="10" t="s">
+      <c r="V65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="10" t="s">
+      <c r="Z65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="10" t="s">
+      <c r="AD65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -5947,24 +5956,24 @@
       <c r="AN65" s="1"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>48</v>
@@ -5974,7 +5983,7 @@
         <v>47</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>48</v>
@@ -5984,7 +5993,7 @@
         <v>47</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>48</v>
@@ -5994,7 +6003,7 @@
         <v>47</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>48</v>
@@ -6004,7 +6013,7 @@
         <v>47</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>48</v>
@@ -6014,7 +6023,7 @@
         <v>47</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB66" s="1" t="s">
         <v>48</v>
@@ -6024,7 +6033,7 @@
         <v>47</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>48</v>
@@ -6039,12 +6048,12 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -6129,12 +6138,12 @@
       <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -6219,9 +6228,9 @@
       <c r="AN68" s="1"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>69</v>
@@ -6309,9 +6318,9 @@
       <c r="AN69" s="1"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>70</v>
@@ -6399,9 +6408,9 @@
       <c r="AN70" s="1"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>71</v>
@@ -6489,9 +6498,9 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
@@ -6622,9 +6631,9 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6665,52 +6674,52 @@
     <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="10" t="s">
+      <c r="V75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="10" t="s">
+      <c r="Z75" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="10" t="s">
+      <c r="AD75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6721,17 +6730,17 @@
       <c r="AN75" s="1"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -6781,7 +6790,7 @@
         <v>51</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
@@ -6813,15 +6822,15 @@
       <c r="AN76" s="1"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -6903,15 +6912,15 @@
       <c r="AN77" s="1"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -6993,15 +7002,15 @@
       <c r="AN78" s="1"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -7083,15 +7092,15 @@
       <c r="AN79" s="1"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -7173,15 +7182,15 @@
       <c r="AN80" s="1"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -7263,15 +7272,15 @@
       <c r="AN81" s="1"/>
     </row>
     <row r="82" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
@@ -7396,9 +7405,9 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7438,55 +7447,55 @@
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="10" t="s">
+      <c r="R85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
       <c r="U85" s="2"/>
-      <c r="V85" s="10" t="s">
+      <c r="V85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="10" t="s">
+      <c r="Z85" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="10" t="s">
+      <c r="AD85" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7497,17 +7506,17 @@
       <c r="AN85" s="1"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
@@ -7589,15 +7598,15 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
@@ -7679,15 +7688,15 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
@@ -7769,15 +7778,15 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
@@ -7859,7 +7868,7 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
@@ -7949,15 +7958,15 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
@@ -8039,7 +8048,7 @@
       <c r="AN91" s="1"/>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8047,7 +8056,7 @@
         <v>42</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -8175,32 +8184,32 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="F94" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="10" t="s">
+      <c r="N94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="10" t="s">
+      <c r="R94" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -8223,57 +8232,57 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
-        <v>130</v>
+      <c r="A95" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="L95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="P95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S95" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="T95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -8297,15 +8306,15 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
@@ -8369,15 +8378,15 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
@@ -8441,15 +8450,15 @@
       <c r="AN97" s="1"/>
     </row>
     <row r="98" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
@@ -8513,15 +8522,15 @@
       <c r="AN98" s="1"/>
     </row>
     <row r="99" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
@@ -8585,15 +8594,15 @@
       <c r="AN99" s="1"/>
     </row>
     <row r="100" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -8657,15 +8666,15 @@
       <c r="AN100" s="1"/>
     </row>
     <row r="101" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
@@ -8776,29 +8785,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="10" t="s">
+      <c r="N103" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="10" t="s">
+      <c r="R103" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -8821,48 +8830,48 @@
       <c r="AN103" s="1"/>
     </row>
     <row r="104" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -8887,15 +8896,15 @@
       <c r="AN104" s="1"/>
     </row>
     <row r="105" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
@@ -8959,15 +8968,15 @@
       <c r="AN105" s="1"/>
     </row>
     <row r="106" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
@@ -9031,15 +9040,15 @@
       <c r="AN106" s="1"/>
     </row>
     <row r="107" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -9103,15 +9112,15 @@
       <c r="AN107" s="1"/>
     </row>
     <row r="108" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -9175,15 +9184,15 @@
       <c r="AN108" s="1"/>
     </row>
     <row r="109" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
@@ -9247,15 +9256,15 @@
       <c r="AN109" s="1"/>
     </row>
     <row r="110" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
@@ -9319,7 +9328,7 @@
       <c r="AN110" s="1"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="1"/>
@@ -9338,13 +9347,13 @@
       <c r="G112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I112" s="12"/>
+      <c r="H112" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9363,11 +9372,11 @@
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
@@ -9386,11 +9395,11 @@
       <c r="G114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9409,11 +9418,11 @@
       <c r="G115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9432,11 +9441,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
@@ -9455,11 +9464,11 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9478,11 +9487,11 @@
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
@@ -9501,32 +9510,74 @@
       <c r="G119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="H112:I119"/>
-    <mergeCell ref="F1:AF1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F19:H19"/>
@@ -9542,69 +9593,27 @@
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="AG39:AG45"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AF75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="R75:T75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F1:AF1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="H112:I119"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="R103:T103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
